--- a/Database/Campean/persoane_vaccinate.xlsx
+++ b/Database/Campean/persoane_vaccinate.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\Licenta_covid19_UTCN\Database\Campean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository_licenta\Licenta_covid19_UTCN\Database\Campean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B62C3E2B-AE46-4ECB-BB29-04C0E6264B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5D01E-7D8A-4524-8FE9-D029B41E501F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="488" windowWidth="24267" windowHeight="13148"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,21 +390,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,1367 +415,4843 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44192</v>
+        <v>43876</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44193</v>
+        <v>43877</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44194</v>
+        <v>43878</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44195</v>
+        <v>43879</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44196</v>
+        <v>43880</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44197</v>
+        <v>43881</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>11656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44198</v>
+        <v>43882</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>13242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44199</v>
+        <v>43883</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>13596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44200</v>
+        <v>43884</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>25508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44201</v>
+        <v>43885</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>41609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44202</v>
+        <v>43886</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>58554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44203</v>
+        <v>43887</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>76400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44204</v>
+        <v>43888</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>92706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44205</v>
+        <v>43889</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>102301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44206</v>
+        <v>43890</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>108294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44207</v>
+        <v>43891</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>125190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44208</v>
+        <v>43892</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>140447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44209</v>
+        <v>43893</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>154268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44210</v>
+        <v>43894</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>154268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44211</v>
+        <v>43895</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>183669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44212</v>
+        <v>43896</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>196090</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44213</v>
+        <v>43897</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>204185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44214</v>
+        <v>43898</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>235239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44215</v>
+        <v>43899</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>270046</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44216</v>
+        <v>43900</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>308384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44217</v>
+        <v>43901</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>348096</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44218</v>
+        <v>43902</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28">
-        <v>385936</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44219</v>
+        <v>43903</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>418885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44220</v>
+        <v>43904</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>446285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44221</v>
+        <v>43905</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>484631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44222</v>
+        <v>43906</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32">
-        <v>528378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44223</v>
+        <v>43907</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33">
-        <v>570704</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44224</v>
+        <v>43908</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34">
-        <v>609396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44225</v>
+        <v>43909</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35">
-        <v>647000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44226</v>
+        <v>43910</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36">
-        <v>672396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44227</v>
+        <v>43911</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37">
-        <v>691415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44228</v>
+        <v>43912</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38">
-        <v>721184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44229</v>
+        <v>43913</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39">
-        <v>748732</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44230</v>
+        <v>43914</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40">
-        <v>772202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44231</v>
+        <v>43915</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>794795</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44232</v>
+        <v>43916</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42">
-        <v>821552</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44233</v>
+        <v>43917</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43">
-        <v>840812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44234</v>
+        <v>43918</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44">
-        <v>856322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44235</v>
+        <v>43919</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45">
-        <v>891348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44236</v>
+        <v>43920</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46">
-        <v>930155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44237</v>
+        <v>43921</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47">
-        <v>970967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44238</v>
+        <v>43922</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48">
-        <v>1009421</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44239</v>
+        <v>43923</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49">
-        <v>1048797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44240</v>
+        <v>43924</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50">
-        <v>1084096</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44241</v>
+        <v>43925</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51">
-        <v>1113975</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44242</v>
+        <v>43926</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52">
-        <v>1151112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44243</v>
+        <v>43927</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53">
-        <v>1197089</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44244</v>
+        <v>43928</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54">
-        <v>1240408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44245</v>
+        <v>43929</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55">
-        <v>1280228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44246</v>
+        <v>43930</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56">
-        <v>1318355</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44247</v>
+        <v>43931</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57">
-        <v>1351279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44248</v>
+        <v>43932</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58">
-        <v>1379223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44249</v>
+        <v>43933</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59">
-        <v>1409087</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44250</v>
+        <v>43934</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60">
-        <v>1438432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44251</v>
+        <v>43935</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61">
-        <v>1466649</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44252</v>
+        <v>43936</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62">
-        <v>1486907</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44253</v>
+        <v>43937</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63">
-        <v>1506032</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44254</v>
+        <v>43938</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64">
-        <v>1521736</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44255</v>
+        <v>43939</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65">
-        <v>1532872</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44256</v>
+        <v>43940</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66">
-        <v>1565021</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44257</v>
+        <v>43941</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67">
-        <v>1603179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44258</v>
+        <v>43942</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68">
-        <v>1641874</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44259</v>
+        <v>43943</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69">
-        <v>1685611</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44260</v>
+        <v>43944</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70">
-        <v>1732964</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44261</v>
+        <v>43945</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71">
-        <v>1781602</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44262</v>
+        <v>43946</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72">
-        <v>1826786</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44263</v>
+        <v>43947</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73">
-        <v>1870244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44264</v>
+        <v>43948</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74">
-        <v>1918443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44265</v>
+        <v>43949</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75">
-        <v>1969846</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44266</v>
+        <v>43950</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76">
-        <v>2019757</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44267</v>
+        <v>43951</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77">
-        <v>2069143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44268</v>
+        <v>43952</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78">
-        <v>2117865</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44269</v>
+        <v>43953</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79">
-        <v>2160564</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44270</v>
+        <v>43954</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80">
-        <v>2210140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44271</v>
+        <v>43955</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81">
-        <v>2270124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44272</v>
+        <v>43956</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82">
-        <v>2324405</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44273</v>
+        <v>43957</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83">
-        <v>2376330</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44274</v>
+        <v>43958</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84">
-        <v>2426191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44275</v>
+        <v>43959</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85">
-        <v>2477095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44276</v>
+        <v>43960</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86">
-        <v>2521512</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44277</v>
+        <v>43961</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87">
-        <v>2568108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44278</v>
+        <v>43962</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88">
-        <v>2626770</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44279</v>
+        <v>43963</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89">
-        <v>2685878</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44280</v>
+        <v>43964</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90">
-        <v>2744764</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44281</v>
+        <v>43965</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91">
-        <v>2799895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44282</v>
+        <v>43966</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92">
-        <v>2858442</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44283</v>
+        <v>43967</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93">
-        <v>2913155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44284</v>
+        <v>43968</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94">
-        <v>2965613</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44285</v>
+        <v>43969</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95">
-        <v>3030031</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44286</v>
+        <v>43970</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96">
-        <v>3088292</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44287</v>
+        <v>43971</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97">
-        <v>3145907</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44288</v>
+        <v>43972</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98">
-        <v>3203876</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44289</v>
+        <v>43973</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99">
-        <v>3259301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44290</v>
+        <v>43974</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100">
-        <v>3307636</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44291</v>
+        <v>43975</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101">
-        <v>3359006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44292</v>
+        <v>43976</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102">
-        <v>3413955</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44293</v>
+        <v>43977</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103">
-        <v>3469294</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44294</v>
+        <v>43978</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104">
-        <v>3526117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44295</v>
+        <v>43979</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105">
-        <v>3580406</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44296</v>
+        <v>43980</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106">
-        <v>3642345</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44297</v>
+        <v>43981</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107">
-        <v>3699333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44298</v>
+        <v>43982</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108">
-        <v>3762214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44299</v>
+        <v>43983</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109">
-        <v>3838804</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>44300</v>
+        <v>43984</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110">
-        <v>3918924</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44301</v>
+        <v>43985</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111">
-        <v>3998980</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44302</v>
+        <v>43986</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112">
-        <v>4078614</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44303</v>
+        <v>43987</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113">
-        <v>4159792</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44304</v>
+        <v>43988</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114">
-        <v>4231714</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44305</v>
+        <v>43989</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115">
-        <v>4306981</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44306</v>
+        <v>43990</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116">
-        <v>4395865</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44307</v>
+        <v>43991</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117">
-        <v>4487643</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44308</v>
+        <v>43992</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118">
-        <v>4575020</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44309</v>
+        <v>43993</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119">
-        <v>4665420</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44310</v>
+        <v>43994</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120">
-        <v>4755099</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44311</v>
+        <v>43995</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121">
-        <v>4832203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44312</v>
+        <v>43996</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122">
-        <v>4913012</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44313</v>
+        <v>43997</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123">
-        <v>4913012</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44314</v>
+        <v>43998</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124">
-        <v>5081449</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44315</v>
+        <v>43999</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+      <c r="C318">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+      <c r="C319">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+      <c r="C320">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+      <c r="C321">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+      <c r="C322">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+      <c r="C323">
+        <v>11656</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+      <c r="C324">
+        <v>13242</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+      <c r="C325">
+        <v>13596</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <v>25508</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <v>58554</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <v>76400</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <v>92706</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>102301</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B332">
+        <v>331</v>
+      </c>
+      <c r="C332">
+        <v>108294</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B333">
+        <v>332</v>
+      </c>
+      <c r="C333">
+        <v>125190</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B334">
+        <v>333</v>
+      </c>
+      <c r="C334">
+        <v>140447</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B335">
+        <v>334</v>
+      </c>
+      <c r="C335">
+        <v>154268</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B336">
+        <v>335</v>
+      </c>
+      <c r="C336">
+        <v>154268</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B337">
+        <v>336</v>
+      </c>
+      <c r="C337">
+        <v>183669</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B338">
+        <v>337</v>
+      </c>
+      <c r="C338">
+        <v>196090</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B339">
+        <v>338</v>
+      </c>
+      <c r="C339">
+        <v>204185</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B340">
+        <v>339</v>
+      </c>
+      <c r="C340">
+        <v>235239</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B341">
+        <v>340</v>
+      </c>
+      <c r="C341">
+        <v>270046</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B342">
+        <v>341</v>
+      </c>
+      <c r="C342">
+        <v>308384</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B343">
+        <v>342</v>
+      </c>
+      <c r="C343">
+        <v>348096</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B344">
+        <v>343</v>
+      </c>
+      <c r="C344">
+        <v>385936</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B345">
+        <v>344</v>
+      </c>
+      <c r="C345">
+        <v>418885</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B346">
+        <v>345</v>
+      </c>
+      <c r="C346">
+        <v>446285</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B347">
+        <v>346</v>
+      </c>
+      <c r="C347">
+        <v>484631</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B348">
+        <v>347</v>
+      </c>
+      <c r="C348">
+        <v>528378</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+      <c r="C349">
+        <v>570704</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B350">
+        <v>349</v>
+      </c>
+      <c r="C350">
+        <v>609396</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B351">
+        <v>350</v>
+      </c>
+      <c r="C351">
+        <v>647000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B352">
+        <v>351</v>
+      </c>
+      <c r="C352">
+        <v>672396</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B353">
+        <v>352</v>
+      </c>
+      <c r="C353">
+        <v>691415</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B354">
+        <v>353</v>
+      </c>
+      <c r="C354">
+        <v>721184</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B355">
+        <v>354</v>
+      </c>
+      <c r="C355">
+        <v>748732</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B356">
+        <v>355</v>
+      </c>
+      <c r="C356">
+        <v>772202</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B357">
+        <v>356</v>
+      </c>
+      <c r="C357">
+        <v>794795</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+      <c r="C358">
+        <v>821552</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+      <c r="C359">
+        <v>840812</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B360">
+        <v>359</v>
+      </c>
+      <c r="C360">
+        <v>856322</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+      <c r="C361">
+        <v>891348</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B362">
+        <v>361</v>
+      </c>
+      <c r="C362">
+        <v>930155</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B363">
+        <v>362</v>
+      </c>
+      <c r="C363">
+        <v>970967</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B364">
+        <v>363</v>
+      </c>
+      <c r="C364">
+        <v>1009421</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B365">
+        <v>364</v>
+      </c>
+      <c r="C365">
+        <v>1048797</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B366">
+        <v>365</v>
+      </c>
+      <c r="C366">
+        <v>1084096</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B367">
+        <v>366</v>
+      </c>
+      <c r="C367">
+        <v>1113975</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+      <c r="C368">
+        <v>1151112</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B369">
+        <v>368</v>
+      </c>
+      <c r="C369">
+        <v>1197089</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B370">
+        <v>369</v>
+      </c>
+      <c r="C370">
+        <v>1240408</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B371">
+        <v>370</v>
+      </c>
+      <c r="C371">
+        <v>1280228</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B372">
+        <v>371</v>
+      </c>
+      <c r="C372">
+        <v>1318355</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B373">
+        <v>372</v>
+      </c>
+      <c r="C373">
+        <v>1351279</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B374">
+        <v>373</v>
+      </c>
+      <c r="C374">
+        <v>1379223</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B375">
+        <v>374</v>
+      </c>
+      <c r="C375">
+        <v>1409087</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B376">
+        <v>375</v>
+      </c>
+      <c r="C376">
+        <v>1438432</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B377">
+        <v>376</v>
+      </c>
+      <c r="C377">
+        <v>1466649</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B378">
+        <v>377</v>
+      </c>
+      <c r="C378">
+        <v>1486907</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B379">
+        <v>378</v>
+      </c>
+      <c r="C379">
+        <v>1506032</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B380">
+        <v>379</v>
+      </c>
+      <c r="C380">
+        <v>1521736</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B381">
+        <v>380</v>
+      </c>
+      <c r="C381">
+        <v>1532872</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B382">
+        <v>381</v>
+      </c>
+      <c r="C382">
+        <v>1565021</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B383">
+        <v>382</v>
+      </c>
+      <c r="C383">
+        <v>1603179</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B384">
+        <v>383</v>
+      </c>
+      <c r="C384">
+        <v>1641874</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B385">
+        <v>384</v>
+      </c>
+      <c r="C385">
+        <v>1685611</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B386">
+        <v>385</v>
+      </c>
+      <c r="C386">
+        <v>1732964</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B387">
+        <v>386</v>
+      </c>
+      <c r="C387">
+        <v>1781602</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B388">
+        <v>387</v>
+      </c>
+      <c r="C388">
+        <v>1826786</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B389">
+        <v>388</v>
+      </c>
+      <c r="C389">
+        <v>1870244</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B390">
+        <v>389</v>
+      </c>
+      <c r="C390">
+        <v>1918443</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B391">
+        <v>390</v>
+      </c>
+      <c r="C391">
+        <v>1969846</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+      <c r="C392">
+        <v>2019757</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+      <c r="C393">
+        <v>2069143</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+      <c r="C394">
+        <v>2117865</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B395">
+        <v>394</v>
+      </c>
+      <c r="C395">
+        <v>2160564</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B396">
+        <v>395</v>
+      </c>
+      <c r="C396">
+        <v>2210140</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B397">
+        <v>396</v>
+      </c>
+      <c r="C397">
+        <v>2270124</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B398">
+        <v>397</v>
+      </c>
+      <c r="C398">
+        <v>2324405</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B399">
+        <v>398</v>
+      </c>
+      <c r="C399">
+        <v>2376330</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B400">
+        <v>399</v>
+      </c>
+      <c r="C400">
+        <v>2426191</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B401">
+        <v>400</v>
+      </c>
+      <c r="C401">
+        <v>2477095</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B402">
+        <v>401</v>
+      </c>
+      <c r="C402">
+        <v>2521512</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B403">
+        <v>402</v>
+      </c>
+      <c r="C403">
+        <v>2568108</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B404">
+        <v>403</v>
+      </c>
+      <c r="C404">
+        <v>2626770</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B405">
+        <v>404</v>
+      </c>
+      <c r="C405">
+        <v>2685878</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B406">
+        <v>405</v>
+      </c>
+      <c r="C406">
+        <v>2744764</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B407">
+        <v>406</v>
+      </c>
+      <c r="C407">
+        <v>2799895</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B408">
+        <v>407</v>
+      </c>
+      <c r="C408">
+        <v>2858442</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B409">
+        <v>408</v>
+      </c>
+      <c r="C409">
+        <v>2913155</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B410">
+        <v>409</v>
+      </c>
+      <c r="C410">
+        <v>2965613</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B411">
+        <v>410</v>
+      </c>
+      <c r="C411">
+        <v>3030031</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B412">
+        <v>411</v>
+      </c>
+      <c r="C412">
+        <v>3088292</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B413">
+        <v>412</v>
+      </c>
+      <c r="C413">
+        <v>3145907</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B414">
+        <v>413</v>
+      </c>
+      <c r="C414">
+        <v>3203876</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B415">
+        <v>414</v>
+      </c>
+      <c r="C415">
+        <v>3259301</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B416">
+        <v>415</v>
+      </c>
+      <c r="C416">
+        <v>3307636</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B417">
+        <v>416</v>
+      </c>
+      <c r="C417">
+        <v>3359006</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B418">
+        <v>417</v>
+      </c>
+      <c r="C418">
+        <v>3413955</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B419">
+        <v>418</v>
+      </c>
+      <c r="C419">
+        <v>3469294</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B420">
+        <v>419</v>
+      </c>
+      <c r="C420">
+        <v>3526117</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B421">
+        <v>420</v>
+      </c>
+      <c r="C421">
+        <v>3580406</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B422">
+        <v>421</v>
+      </c>
+      <c r="C422">
+        <v>3642345</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B423">
+        <v>422</v>
+      </c>
+      <c r="C423">
+        <v>3699333</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+      <c r="C424">
+        <v>3762214</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B425">
+        <v>424</v>
+      </c>
+      <c r="C425">
+        <v>3838804</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B426">
+        <v>425</v>
+      </c>
+      <c r="C426">
+        <v>3918924</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B427">
+        <v>426</v>
+      </c>
+      <c r="C427">
+        <v>3998980</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B428">
+        <v>427</v>
+      </c>
+      <c r="C428">
+        <v>4078614</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B429">
+        <v>428</v>
+      </c>
+      <c r="C429">
+        <v>4159792</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B430">
+        <v>429</v>
+      </c>
+      <c r="C430">
+        <v>4231714</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B431">
+        <v>430</v>
+      </c>
+      <c r="C431">
+        <v>4306981</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B432">
+        <v>431</v>
+      </c>
+      <c r="C432">
+        <v>4395865</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B433">
+        <v>432</v>
+      </c>
+      <c r="C433">
+        <v>4487643</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B434">
+        <v>433</v>
+      </c>
+      <c r="C434">
+        <v>4575020</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B435">
+        <v>434</v>
+      </c>
+      <c r="C435">
+        <v>4665420</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B436">
+        <v>435</v>
+      </c>
+      <c r="C436">
+        <v>4755099</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B437">
+        <v>436</v>
+      </c>
+      <c r="C437">
+        <v>4832203</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B438">
+        <v>437</v>
+      </c>
+      <c r="C438">
+        <v>4913012</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B439">
+        <v>438</v>
+      </c>
+      <c r="C439">
+        <v>4913012</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B440">
+        <v>439</v>
+      </c>
+      <c r="C440">
+        <v>5081449</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B441">
+        <v>440</v>
+      </c>
+      <c r="C441">
         <v>5161840</v>
       </c>
     </row>

--- a/Database/Campean/persoane_vaccinate.xlsx
+++ b/Database/Campean/persoane_vaccinate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository_licenta\Licenta_covid19_UTCN\Database\Campean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5D01E-7D8A-4524-8FE9-D029B41E501F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7F09B-F48D-47DA-BAB4-6E8C947C3F40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>data</t>
   </si>
@@ -39,7 +39,10 @@
     <t>nr. zi</t>
   </si>
   <si>
-    <t>persoane vaccinate</t>
+    <t>persoane vaccinate total</t>
+  </si>
+  <si>
+    <t>persoane vaccinate zilnic</t>
   </si>
 </sst>
 </file>
@@ -391,20 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C441"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +418,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43876</v>
       </c>
@@ -425,8 +432,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43877</v>
       </c>
@@ -436,8 +446,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43878</v>
       </c>
@@ -447,8 +460,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43879</v>
       </c>
@@ -458,8 +474,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43880</v>
       </c>
@@ -469,8 +488,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43881</v>
       </c>
@@ -480,8 +502,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43882</v>
       </c>
@@ -491,8 +516,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43883</v>
       </c>
@@ -502,8 +530,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43884</v>
       </c>
@@ -513,8 +544,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43885</v>
       </c>
@@ -524,8 +558,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43886</v>
       </c>
@@ -535,8 +572,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43887</v>
       </c>
@@ -546,8 +586,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43888</v>
       </c>
@@ -557,8 +600,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43889</v>
       </c>
@@ -568,8 +614,11 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43890</v>
       </c>
@@ -579,8 +628,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43891</v>
       </c>
@@ -590,8 +642,11 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43892</v>
       </c>
@@ -601,8 +656,11 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43893</v>
       </c>
@@ -612,8 +670,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43894</v>
       </c>
@@ -623,8 +684,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43895</v>
       </c>
@@ -634,8 +698,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43896</v>
       </c>
@@ -645,8 +712,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43897</v>
       </c>
@@ -656,8 +726,11 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43898</v>
       </c>
@@ -667,8 +740,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43899</v>
       </c>
@@ -678,8 +754,11 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43900</v>
       </c>
@@ -689,8 +768,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43901</v>
       </c>
@@ -700,8 +782,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43902</v>
       </c>
@@ -711,8 +796,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43903</v>
       </c>
@@ -722,8 +810,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43904</v>
       </c>
@@ -733,8 +824,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43905</v>
       </c>
@@ -744,8 +838,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43906</v>
       </c>
@@ -755,8 +852,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43907</v>
       </c>
@@ -766,8 +866,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43908</v>
       </c>
@@ -777,8 +880,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43909</v>
       </c>
@@ -788,8 +894,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43910</v>
       </c>
@@ -799,8 +908,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43911</v>
       </c>
@@ -810,8 +922,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43912</v>
       </c>
@@ -821,8 +936,11 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43913</v>
       </c>
@@ -832,8 +950,11 @@
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43914</v>
       </c>
@@ -843,8 +964,11 @@
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43915</v>
       </c>
@@ -854,8 +978,11 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43916</v>
       </c>
@@ -865,8 +992,11 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43917</v>
       </c>
@@ -876,8 +1006,11 @@
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43918</v>
       </c>
@@ -887,8 +1020,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43919</v>
       </c>
@@ -898,8 +1034,11 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43920</v>
       </c>
@@ -909,8 +1048,11 @@
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43921</v>
       </c>
@@ -920,8 +1062,11 @@
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43922</v>
       </c>
@@ -931,8 +1076,11 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43923</v>
       </c>
@@ -942,8 +1090,11 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43924</v>
       </c>
@@ -953,8 +1104,11 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43925</v>
       </c>
@@ -964,8 +1118,11 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43926</v>
       </c>
@@ -975,8 +1132,11 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43927</v>
       </c>
@@ -986,8 +1146,11 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43928</v>
       </c>
@@ -997,8 +1160,11 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43929</v>
       </c>
@@ -1008,8 +1174,11 @@
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43930</v>
       </c>
@@ -1019,8 +1188,11 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43931</v>
       </c>
@@ -1030,8 +1202,11 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43932</v>
       </c>
@@ -1041,8 +1216,11 @@
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43933</v>
       </c>
@@ -1052,8 +1230,11 @@
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43934</v>
       </c>
@@ -1063,8 +1244,11 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43935</v>
       </c>
@@ -1074,8 +1258,11 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43936</v>
       </c>
@@ -1085,8 +1272,11 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43937</v>
       </c>
@@ -1096,8 +1286,11 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43938</v>
       </c>
@@ -1107,8 +1300,11 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43939</v>
       </c>
@@ -1118,8 +1314,11 @@
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43940</v>
       </c>
@@ -1129,8 +1328,11 @@
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43941</v>
       </c>
@@ -1140,8 +1342,11 @@
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43942</v>
       </c>
@@ -1151,8 +1356,11 @@
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43943</v>
       </c>
@@ -1162,8 +1370,11 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43944</v>
       </c>
@@ -1173,8 +1384,11 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43945</v>
       </c>
@@ -1184,8 +1398,11 @@
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43946</v>
       </c>
@@ -1195,8 +1412,11 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43947</v>
       </c>
@@ -1206,8 +1426,11 @@
       <c r="C73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43948</v>
       </c>
@@ -1217,8 +1440,11 @@
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43949</v>
       </c>
@@ -1228,8 +1454,11 @@
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43950</v>
       </c>
@@ -1239,8 +1468,11 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43951</v>
       </c>
@@ -1250,8 +1482,11 @@
       <c r="C77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43952</v>
       </c>
@@ -1261,8 +1496,11 @@
       <c r="C78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43953</v>
       </c>
@@ -1272,8 +1510,11 @@
       <c r="C79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43954</v>
       </c>
@@ -1283,8 +1524,11 @@
       <c r="C80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43955</v>
       </c>
@@ -1294,8 +1538,11 @@
       <c r="C81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43956</v>
       </c>
@@ -1305,8 +1552,11 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43957</v>
       </c>
@@ -1316,8 +1566,11 @@
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43958</v>
       </c>
@@ -1327,8 +1580,11 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43959</v>
       </c>
@@ -1338,8 +1594,11 @@
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43960</v>
       </c>
@@ -1349,8 +1608,11 @@
       <c r="C86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43961</v>
       </c>
@@ -1360,8 +1622,11 @@
       <c r="C87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43962</v>
       </c>
@@ -1371,8 +1636,11 @@
       <c r="C88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43963</v>
       </c>
@@ -1382,8 +1650,11 @@
       <c r="C89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43964</v>
       </c>
@@ -1393,8 +1664,11 @@
       <c r="C90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43965</v>
       </c>
@@ -1404,8 +1678,11 @@
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43966</v>
       </c>
@@ -1415,8 +1692,11 @@
       <c r="C92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43967</v>
       </c>
@@ -1426,8 +1706,11 @@
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43968</v>
       </c>
@@ -1437,8 +1720,11 @@
       <c r="C94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43969</v>
       </c>
@@ -1448,8 +1734,11 @@
       <c r="C95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43970</v>
       </c>
@@ -1459,8 +1748,11 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43971</v>
       </c>
@@ -1470,8 +1762,11 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43972</v>
       </c>
@@ -1481,8 +1776,11 @@
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43973</v>
       </c>
@@ -1492,8 +1790,11 @@
       <c r="C99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43974</v>
       </c>
@@ -1503,8 +1804,11 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43975</v>
       </c>
@@ -1514,8 +1818,11 @@
       <c r="C101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43976</v>
       </c>
@@ -1525,8 +1832,11 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43977</v>
       </c>
@@ -1536,8 +1846,11 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43978</v>
       </c>
@@ -1547,8 +1860,11 @@
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43979</v>
       </c>
@@ -1558,8 +1874,11 @@
       <c r="C105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43980</v>
       </c>
@@ -1569,8 +1888,11 @@
       <c r="C106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43981</v>
       </c>
@@ -1580,8 +1902,11 @@
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43982</v>
       </c>
@@ -1591,8 +1916,11 @@
       <c r="C108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43983</v>
       </c>
@@ -1602,8 +1930,11 @@
       <c r="C109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43984</v>
       </c>
@@ -1613,8 +1944,11 @@
       <c r="C110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43985</v>
       </c>
@@ -1624,8 +1958,11 @@
       <c r="C111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43986</v>
       </c>
@@ -1635,8 +1972,11 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43987</v>
       </c>
@@ -1646,8 +1986,11 @@
       <c r="C113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43988</v>
       </c>
@@ -1657,8 +2000,11 @@
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43989</v>
       </c>
@@ -1668,8 +2014,11 @@
       <c r="C115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43990</v>
       </c>
@@ -1679,8 +2028,11 @@
       <c r="C116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43991</v>
       </c>
@@ -1690,8 +2042,11 @@
       <c r="C117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43992</v>
       </c>
@@ -1701,8 +2056,11 @@
       <c r="C118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43993</v>
       </c>
@@ -1712,8 +2070,11 @@
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43994</v>
       </c>
@@ -1723,8 +2084,11 @@
       <c r="C120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43995</v>
       </c>
@@ -1734,8 +2098,11 @@
       <c r="C121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43996</v>
       </c>
@@ -1745,8 +2112,11 @@
       <c r="C122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43997</v>
       </c>
@@ -1756,8 +2126,11 @@
       <c r="C123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43998</v>
       </c>
@@ -1767,8 +2140,11 @@
       <c r="C124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43999</v>
       </c>
@@ -1778,8 +2154,11 @@
       <c r="C125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44000</v>
       </c>
@@ -1789,8 +2168,11 @@
       <c r="C126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44001</v>
       </c>
@@ -1800,8 +2182,11 @@
       <c r="C127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44002</v>
       </c>
@@ -1811,8 +2196,11 @@
       <c r="C128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44003</v>
       </c>
@@ -1822,8 +2210,11 @@
       <c r="C129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44004</v>
       </c>
@@ -1833,8 +2224,11 @@
       <c r="C130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44005</v>
       </c>
@@ -1844,8 +2238,11 @@
       <c r="C131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44006</v>
       </c>
@@ -1855,8 +2252,11 @@
       <c r="C132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44007</v>
       </c>
@@ -1866,8 +2266,11 @@
       <c r="C133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44008</v>
       </c>
@@ -1877,8 +2280,11 @@
       <c r="C134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44009</v>
       </c>
@@ -1888,8 +2294,11 @@
       <c r="C135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44010</v>
       </c>
@@ -1899,8 +2308,11 @@
       <c r="C136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44011</v>
       </c>
@@ -1910,8 +2322,11 @@
       <c r="C137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44012</v>
       </c>
@@ -1921,8 +2336,11 @@
       <c r="C138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44013</v>
       </c>
@@ -1932,8 +2350,11 @@
       <c r="C139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44014</v>
       </c>
@@ -1943,8 +2364,11 @@
       <c r="C140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44015</v>
       </c>
@@ -1954,8 +2378,11 @@
       <c r="C141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44016</v>
       </c>
@@ -1965,8 +2392,11 @@
       <c r="C142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44017</v>
       </c>
@@ -1976,8 +2406,11 @@
       <c r="C143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44018</v>
       </c>
@@ -1987,8 +2420,11 @@
       <c r="C144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44019</v>
       </c>
@@ -1998,8 +2434,11 @@
       <c r="C145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44020</v>
       </c>
@@ -2009,8 +2448,11 @@
       <c r="C146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44021</v>
       </c>
@@ -2020,8 +2462,11 @@
       <c r="C147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44022</v>
       </c>
@@ -2031,8 +2476,11 @@
       <c r="C148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44023</v>
       </c>
@@ -2042,8 +2490,11 @@
       <c r="C149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44024</v>
       </c>
@@ -2053,8 +2504,11 @@
       <c r="C150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44025</v>
       </c>
@@ -2064,8 +2518,11 @@
       <c r="C151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44026</v>
       </c>
@@ -2075,8 +2532,11 @@
       <c r="C152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44027</v>
       </c>
@@ -2086,8 +2546,11 @@
       <c r="C153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44028</v>
       </c>
@@ -2097,8 +2560,11 @@
       <c r="C154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44029</v>
       </c>
@@ -2108,8 +2574,11 @@
       <c r="C155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44030</v>
       </c>
@@ -2119,8 +2588,11 @@
       <c r="C156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44031</v>
       </c>
@@ -2130,8 +2602,11 @@
       <c r="C157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44032</v>
       </c>
@@ -2141,8 +2616,11 @@
       <c r="C158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44033</v>
       </c>
@@ -2152,8 +2630,11 @@
       <c r="C159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44034</v>
       </c>
@@ -2163,8 +2644,11 @@
       <c r="C160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44035</v>
       </c>
@@ -2174,8 +2658,11 @@
       <c r="C161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44036</v>
       </c>
@@ -2185,8 +2672,11 @@
       <c r="C162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44037</v>
       </c>
@@ -2196,8 +2686,11 @@
       <c r="C163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44038</v>
       </c>
@@ -2207,8 +2700,11 @@
       <c r="C164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44039</v>
       </c>
@@ -2218,8 +2714,11 @@
       <c r="C165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44040</v>
       </c>
@@ -2229,8 +2728,11 @@
       <c r="C166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44041</v>
       </c>
@@ -2240,8 +2742,11 @@
       <c r="C167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44042</v>
       </c>
@@ -2251,8 +2756,11 @@
       <c r="C168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44043</v>
       </c>
@@ -2262,8 +2770,11 @@
       <c r="C169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44044</v>
       </c>
@@ -2273,8 +2784,11 @@
       <c r="C170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44045</v>
       </c>
@@ -2284,8 +2798,11 @@
       <c r="C171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44046</v>
       </c>
@@ -2295,8 +2812,11 @@
       <c r="C172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44047</v>
       </c>
@@ -2306,8 +2826,11 @@
       <c r="C173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44048</v>
       </c>
@@ -2317,8 +2840,11 @@
       <c r="C174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44049</v>
       </c>
@@ -2328,8 +2854,11 @@
       <c r="C175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44050</v>
       </c>
@@ -2339,8 +2868,11 @@
       <c r="C176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44051</v>
       </c>
@@ -2350,8 +2882,11 @@
       <c r="C177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44052</v>
       </c>
@@ -2361,8 +2896,11 @@
       <c r="C178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44053</v>
       </c>
@@ -2372,8 +2910,11 @@
       <c r="C179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44054</v>
       </c>
@@ -2383,8 +2924,11 @@
       <c r="C180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44055</v>
       </c>
@@ -2394,8 +2938,11 @@
       <c r="C181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44056</v>
       </c>
@@ -2405,8 +2952,11 @@
       <c r="C182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44057</v>
       </c>
@@ -2416,8 +2966,11 @@
       <c r="C183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44058</v>
       </c>
@@ -2427,8 +2980,11 @@
       <c r="C184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44059</v>
       </c>
@@ -2438,8 +2994,11 @@
       <c r="C185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44060</v>
       </c>
@@ -2449,8 +3008,11 @@
       <c r="C186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44061</v>
       </c>
@@ -2460,8 +3022,11 @@
       <c r="C187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44062</v>
       </c>
@@ -2471,8 +3036,11 @@
       <c r="C188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44063</v>
       </c>
@@ -2482,8 +3050,11 @@
       <c r="C189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44064</v>
       </c>
@@ -2493,8 +3064,11 @@
       <c r="C190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44065</v>
       </c>
@@ -2504,8 +3078,11 @@
       <c r="C191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44066</v>
       </c>
@@ -2515,8 +3092,11 @@
       <c r="C192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44067</v>
       </c>
@@ -2526,8 +3106,11 @@
       <c r="C193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44068</v>
       </c>
@@ -2537,8 +3120,11 @@
       <c r="C194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44069</v>
       </c>
@@ -2548,8 +3134,11 @@
       <c r="C195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44070</v>
       </c>
@@ -2559,8 +3148,11 @@
       <c r="C196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44071</v>
       </c>
@@ -2570,8 +3162,11 @@
       <c r="C197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44072</v>
       </c>
@@ -2581,8 +3176,11 @@
       <c r="C198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44073</v>
       </c>
@@ -2592,8 +3190,11 @@
       <c r="C199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44074</v>
       </c>
@@ -2603,8 +3204,11 @@
       <c r="C200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44075</v>
       </c>
@@ -2614,8 +3218,11 @@
       <c r="C201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44076</v>
       </c>
@@ -2625,8 +3232,11 @@
       <c r="C202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44077</v>
       </c>
@@ -2636,8 +3246,11 @@
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44078</v>
       </c>
@@ -2647,8 +3260,11 @@
       <c r="C204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44079</v>
       </c>
@@ -2658,8 +3274,11 @@
       <c r="C205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44080</v>
       </c>
@@ -2669,8 +3288,11 @@
       <c r="C206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44081</v>
       </c>
@@ -2680,8 +3302,11 @@
       <c r="C207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44082</v>
       </c>
@@ -2691,8 +3316,11 @@
       <c r="C208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44083</v>
       </c>
@@ -2702,8 +3330,11 @@
       <c r="C209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44084</v>
       </c>
@@ -2713,8 +3344,11 @@
       <c r="C210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44085</v>
       </c>
@@ -2724,8 +3358,11 @@
       <c r="C211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44086</v>
       </c>
@@ -2735,8 +3372,11 @@
       <c r="C212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44087</v>
       </c>
@@ -2746,8 +3386,11 @@
       <c r="C213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44088</v>
       </c>
@@ -2757,8 +3400,11 @@
       <c r="C214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44089</v>
       </c>
@@ -2768,8 +3414,11 @@
       <c r="C215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44090</v>
       </c>
@@ -2779,8 +3428,11 @@
       <c r="C216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44091</v>
       </c>
@@ -2790,8 +3442,11 @@
       <c r="C217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44092</v>
       </c>
@@ -2801,8 +3456,11 @@
       <c r="C218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44093</v>
       </c>
@@ -2812,8 +3470,11 @@
       <c r="C219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44094</v>
       </c>
@@ -2823,8 +3484,11 @@
       <c r="C220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44095</v>
       </c>
@@ -2834,8 +3498,11 @@
       <c r="C221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44096</v>
       </c>
@@ -2845,8 +3512,11 @@
       <c r="C222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44097</v>
       </c>
@@ -2856,8 +3526,11 @@
       <c r="C223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44098</v>
       </c>
@@ -2867,8 +3540,11 @@
       <c r="C224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44099</v>
       </c>
@@ -2878,8 +3554,11 @@
       <c r="C225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44100</v>
       </c>
@@ -2889,8 +3568,11 @@
       <c r="C226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44101</v>
       </c>
@@ -2900,8 +3582,11 @@
       <c r="C227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44102</v>
       </c>
@@ -2911,8 +3596,11 @@
       <c r="C228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44103</v>
       </c>
@@ -2922,8 +3610,11 @@
       <c r="C229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44104</v>
       </c>
@@ -2933,8 +3624,11 @@
       <c r="C230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44105</v>
       </c>
@@ -2944,8 +3638,11 @@
       <c r="C231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44106</v>
       </c>
@@ -2955,8 +3652,11 @@
       <c r="C232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44107</v>
       </c>
@@ -2966,8 +3666,11 @@
       <c r="C233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44108</v>
       </c>
@@ -2977,8 +3680,11 @@
       <c r="C234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44109</v>
       </c>
@@ -2988,8 +3694,11 @@
       <c r="C235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44110</v>
       </c>
@@ -2999,8 +3708,11 @@
       <c r="C236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44111</v>
       </c>
@@ -3010,8 +3722,11 @@
       <c r="C237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44112</v>
       </c>
@@ -3021,8 +3736,11 @@
       <c r="C238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44113</v>
       </c>
@@ -3032,8 +3750,11 @@
       <c r="C239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44114</v>
       </c>
@@ -3043,8 +3764,11 @@
       <c r="C240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44115</v>
       </c>
@@ -3054,8 +3778,11 @@
       <c r="C241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44116</v>
       </c>
@@ -3065,8 +3792,11 @@
       <c r="C242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44117</v>
       </c>
@@ -3076,8 +3806,11 @@
       <c r="C243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44118</v>
       </c>
@@ -3087,8 +3820,11 @@
       <c r="C244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44119</v>
       </c>
@@ -3098,8 +3834,11 @@
       <c r="C245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44120</v>
       </c>
@@ -3109,8 +3848,11 @@
       <c r="C246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44121</v>
       </c>
@@ -3120,8 +3862,11 @@
       <c r="C247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44122</v>
       </c>
@@ -3131,8 +3876,11 @@
       <c r="C248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44123</v>
       </c>
@@ -3142,8 +3890,11 @@
       <c r="C249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44124</v>
       </c>
@@ -3153,8 +3904,11 @@
       <c r="C250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44125</v>
       </c>
@@ -3164,8 +3918,11 @@
       <c r="C251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44126</v>
       </c>
@@ -3175,8 +3932,11 @@
       <c r="C252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44127</v>
       </c>
@@ -3186,8 +3946,11 @@
       <c r="C253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44128</v>
       </c>
@@ -3197,8 +3960,11 @@
       <c r="C254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44129</v>
       </c>
@@ -3208,8 +3974,11 @@
       <c r="C255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44130</v>
       </c>
@@ -3219,8 +3988,11 @@
       <c r="C256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44131</v>
       </c>
@@ -3230,8 +4002,11 @@
       <c r="C257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44132</v>
       </c>
@@ -3241,8 +4016,11 @@
       <c r="C258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44133</v>
       </c>
@@ -3252,8 +4030,11 @@
       <c r="C259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44134</v>
       </c>
@@ -3263,8 +4044,11 @@
       <c r="C260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44135</v>
       </c>
@@ -3274,8 +4058,11 @@
       <c r="C261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44136</v>
       </c>
@@ -3285,8 +4072,11 @@
       <c r="C262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44137</v>
       </c>
@@ -3296,8 +4086,11 @@
       <c r="C263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44138</v>
       </c>
@@ -3307,8 +4100,11 @@
       <c r="C264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44139</v>
       </c>
@@ -3318,8 +4114,11 @@
       <c r="C265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44140</v>
       </c>
@@ -3329,8 +4128,11 @@
       <c r="C266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44141</v>
       </c>
@@ -3340,8 +4142,11 @@
       <c r="C267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44142</v>
       </c>
@@ -3351,8 +4156,11 @@
       <c r="C268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44143</v>
       </c>
@@ -3362,8 +4170,11 @@
       <c r="C269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44144</v>
       </c>
@@ -3373,8 +4184,11 @@
       <c r="C270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44145</v>
       </c>
@@ -3384,8 +4198,11 @@
       <c r="C271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44146</v>
       </c>
@@ -3395,8 +4212,11 @@
       <c r="C272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44147</v>
       </c>
@@ -3406,8 +4226,11 @@
       <c r="C273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44148</v>
       </c>
@@ -3417,8 +4240,11 @@
       <c r="C274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44149</v>
       </c>
@@ -3428,8 +4254,11 @@
       <c r="C275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44150</v>
       </c>
@@ -3439,8 +4268,11 @@
       <c r="C276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44151</v>
       </c>
@@ -3450,8 +4282,11 @@
       <c r="C277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44152</v>
       </c>
@@ -3461,8 +4296,11 @@
       <c r="C278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44153</v>
       </c>
@@ -3472,8 +4310,11 @@
       <c r="C279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44154</v>
       </c>
@@ -3483,8 +4324,11 @@
       <c r="C280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44155</v>
       </c>
@@ -3494,8 +4338,11 @@
       <c r="C281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44156</v>
       </c>
@@ -3505,8 +4352,11 @@
       <c r="C282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44157</v>
       </c>
@@ -3516,8 +4366,11 @@
       <c r="C283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44158</v>
       </c>
@@ -3527,8 +4380,11 @@
       <c r="C284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44159</v>
       </c>
@@ -3538,8 +4394,11 @@
       <c r="C285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44160</v>
       </c>
@@ -3549,8 +4408,11 @@
       <c r="C286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44161</v>
       </c>
@@ -3560,8 +4422,11 @@
       <c r="C287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44162</v>
       </c>
@@ -3571,8 +4436,11 @@
       <c r="C288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44163</v>
       </c>
@@ -3582,8 +4450,11 @@
       <c r="C289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44164</v>
       </c>
@@ -3593,8 +4464,11 @@
       <c r="C290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44165</v>
       </c>
@@ -3604,8 +4478,11 @@
       <c r="C291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44166</v>
       </c>
@@ -3615,8 +4492,11 @@
       <c r="C292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44167</v>
       </c>
@@ -3626,8 +4506,11 @@
       <c r="C293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44168</v>
       </c>
@@ -3637,8 +4520,11 @@
       <c r="C294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44169</v>
       </c>
@@ -3648,8 +4534,11 @@
       <c r="C295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44170</v>
       </c>
@@ -3659,8 +4548,11 @@
       <c r="C296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44171</v>
       </c>
@@ -3670,8 +4562,11 @@
       <c r="C297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44172</v>
       </c>
@@ -3681,8 +4576,11 @@
       <c r="C298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44173</v>
       </c>
@@ -3692,8 +4590,11 @@
       <c r="C299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44174</v>
       </c>
@@ -3703,8 +4604,11 @@
       <c r="C300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44175</v>
       </c>
@@ -3714,8 +4618,11 @@
       <c r="C301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44176</v>
       </c>
@@ -3725,8 +4632,11 @@
       <c r="C302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44177</v>
       </c>
@@ -3736,8 +4646,11 @@
       <c r="C303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44178</v>
       </c>
@@ -3747,8 +4660,11 @@
       <c r="C304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44179</v>
       </c>
@@ -3758,8 +4674,11 @@
       <c r="C305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44180</v>
       </c>
@@ -3769,8 +4688,11 @@
       <c r="C306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44181</v>
       </c>
@@ -3780,8 +4702,11 @@
       <c r="C307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44182</v>
       </c>
@@ -3791,8 +4716,11 @@
       <c r="C308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44183</v>
       </c>
@@ -3802,8 +4730,11 @@
       <c r="C309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44184</v>
       </c>
@@ -3813,8 +4744,11 @@
       <c r="C310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44185</v>
       </c>
@@ -3824,8 +4758,11 @@
       <c r="C311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44186</v>
       </c>
@@ -3835,8 +4772,11 @@
       <c r="C312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44187</v>
       </c>
@@ -3846,8 +4786,11 @@
       <c r="C313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44188</v>
       </c>
@@ -3857,8 +4800,11 @@
       <c r="C314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44189</v>
       </c>
@@ -3868,8 +4814,11 @@
       <c r="C315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44190</v>
       </c>
@@ -3879,8 +4828,11 @@
       <c r="C316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44191</v>
       </c>
@@ -3890,8 +4842,11 @@
       <c r="C317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44192</v>
       </c>
@@ -3901,8 +4856,11 @@
       <c r="C318">
         <v>965</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44193</v>
       </c>
@@ -3912,8 +4870,11 @@
       <c r="C319">
         <v>2066</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44194</v>
       </c>
@@ -3923,8 +4884,11 @@
       <c r="C320">
         <v>2778</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44195</v>
       </c>
@@ -3934,8 +4898,11 @@
       <c r="C321">
         <v>5666</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44196</v>
       </c>
@@ -3945,8 +4912,11 @@
       <c r="C322">
         <v>10289</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44197</v>
       </c>
@@ -3956,8 +4926,11 @@
       <c r="C323">
         <v>11656</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44198</v>
       </c>
@@ -3967,8 +4940,11 @@
       <c r="C324">
         <v>13242</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44199</v>
       </c>
@@ -3978,8 +4954,11 @@
       <c r="C325">
         <v>13596</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44200</v>
       </c>
@@ -3989,8 +4968,11 @@
       <c r="C326">
         <v>25508</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>11912</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44201</v>
       </c>
@@ -4000,8 +4982,11 @@
       <c r="C327">
         <v>41609</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>16101</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44202</v>
       </c>
@@ -4011,8 +4996,11 @@
       <c r="C328">
         <v>58554</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>16945</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44203</v>
       </c>
@@ -4022,8 +5010,11 @@
       <c r="C329">
         <v>76400</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>17846</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44204</v>
       </c>
@@ -4033,8 +5024,11 @@
       <c r="C330">
         <v>92706</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>16306</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44205</v>
       </c>
@@ -4044,8 +5038,11 @@
       <c r="C331">
         <v>102301</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>9595</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44206</v>
       </c>
@@ -4055,8 +5052,11 @@
       <c r="C332">
         <v>108294</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44207</v>
       </c>
@@ -4066,8 +5066,11 @@
       <c r="C333">
         <v>125190</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>16896</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44208</v>
       </c>
@@ -4077,8 +5080,11 @@
       <c r="C334">
         <v>140447</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>15257</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44209</v>
       </c>
@@ -4088,8 +5094,11 @@
       <c r="C335">
         <v>154268</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>13821</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44210</v>
       </c>
@@ -4099,8 +5108,11 @@
       <c r="C336">
         <v>154268</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44211</v>
       </c>
@@ -4110,8 +5122,11 @@
       <c r="C337">
         <v>183669</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>29401</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44212</v>
       </c>
@@ -4121,8 +5136,11 @@
       <c r="C338">
         <v>196090</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>12421</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44213</v>
       </c>
@@ -4132,8 +5150,11 @@
       <c r="C339">
         <v>204185</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44214</v>
       </c>
@@ -4143,8 +5164,11 @@
       <c r="C340">
         <v>235239</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>31054</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44215</v>
       </c>
@@ -4154,8 +5178,11 @@
       <c r="C341">
         <v>270046</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>34807</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44216</v>
       </c>
@@ -4165,8 +5192,11 @@
       <c r="C342">
         <v>308384</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>38338</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44217</v>
       </c>
@@ -4176,8 +5206,11 @@
       <c r="C343">
         <v>348096</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>39712</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44218</v>
       </c>
@@ -4187,8 +5220,11 @@
       <c r="C344">
         <v>385936</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>37840</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44219</v>
       </c>
@@ -4198,8 +5234,11 @@
       <c r="C345">
         <v>418885</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>32949</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44220</v>
       </c>
@@ -4209,8 +5248,11 @@
       <c r="C346">
         <v>446285</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44221</v>
       </c>
@@ -4220,8 +5262,11 @@
       <c r="C347">
         <v>484631</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>38346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44222</v>
       </c>
@@ -4231,8 +5276,11 @@
       <c r="C348">
         <v>528378</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44223</v>
       </c>
@@ -4242,8 +5290,11 @@
       <c r="C349">
         <v>570704</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>42326</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44224</v>
       </c>
@@ -4253,8 +5304,11 @@
       <c r="C350">
         <v>609396</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>38692</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44225</v>
       </c>
@@ -4264,8 +5318,11 @@
       <c r="C351">
         <v>647000</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>37604</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44226</v>
       </c>
@@ -4275,8 +5332,11 @@
       <c r="C352">
         <v>672396</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>25396</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44227</v>
       </c>
@@ -4286,8 +5346,11 @@
       <c r="C353">
         <v>691415</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>19019</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44228</v>
       </c>
@@ -4297,8 +5360,11 @@
       <c r="C354">
         <v>721184</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>29769</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44229</v>
       </c>
@@ -4308,8 +5374,11 @@
       <c r="C355">
         <v>748732</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>27548</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44230</v>
       </c>
@@ -4319,8 +5388,11 @@
       <c r="C356">
         <v>772202</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>23470</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44231</v>
       </c>
@@ -4330,8 +5402,11 @@
       <c r="C357">
         <v>794795</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>22593</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44232</v>
       </c>
@@ -4341,8 +5416,11 @@
       <c r="C358">
         <v>821552</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>26757</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44233</v>
       </c>
@@ -4352,8 +5430,11 @@
       <c r="C359">
         <v>840812</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>19260</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44234</v>
       </c>
@@ -4363,8 +5444,11 @@
       <c r="C360">
         <v>856322</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>15510</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44235</v>
       </c>
@@ -4374,8 +5458,11 @@
       <c r="C361">
         <v>891348</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>35026</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44236</v>
       </c>
@@ -4385,8 +5472,11 @@
       <c r="C362">
         <v>930155</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>38807</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44237</v>
       </c>
@@ -4396,8 +5486,11 @@
       <c r="C363">
         <v>970967</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44238</v>
       </c>
@@ -4407,8 +5500,11 @@
       <c r="C364">
         <v>1009421</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>38454</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44239</v>
       </c>
@@ -4418,8 +5514,11 @@
       <c r="C365">
         <v>1048797</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>39376</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44240</v>
       </c>
@@ -4429,8 +5528,11 @@
       <c r="C366">
         <v>1084096</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <v>35299</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44241</v>
       </c>
@@ -4440,8 +5542,11 @@
       <c r="C367">
         <v>1113975</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>29879</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44242</v>
       </c>
@@ -4451,8 +5556,11 @@
       <c r="C368">
         <v>1151112</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <v>37137</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44243</v>
       </c>
@@ -4462,8 +5570,11 @@
       <c r="C369">
         <v>1197089</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44244</v>
       </c>
@@ -4473,8 +5584,11 @@
       <c r="C370">
         <v>1240408</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44245</v>
       </c>
@@ -4484,8 +5598,11 @@
       <c r="C371">
         <v>1280228</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <v>39820</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44246</v>
       </c>
@@ -4495,8 +5612,11 @@
       <c r="C372">
         <v>1318355</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>38127</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44247</v>
       </c>
@@ -4506,8 +5626,11 @@
       <c r="C373">
         <v>1351279</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <v>32924</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44248</v>
       </c>
@@ -4517,8 +5640,11 @@
       <c r="C374">
         <v>1379223</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <v>27944</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44249</v>
       </c>
@@ -4528,8 +5654,11 @@
       <c r="C375">
         <v>1409087</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <v>29864</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44250</v>
       </c>
@@ -4539,8 +5668,11 @@
       <c r="C376">
         <v>1438432</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <v>29345</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44251</v>
       </c>
@@ -4550,8 +5682,11 @@
       <c r="C377">
         <v>1466649</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>28217</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44252</v>
       </c>
@@ -4561,8 +5696,11 @@
       <c r="C378">
         <v>1486907</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378">
+        <v>20258</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44253</v>
       </c>
@@ -4572,8 +5710,11 @@
       <c r="C379">
         <v>1506032</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379">
+        <v>19125</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44254</v>
       </c>
@@ -4583,8 +5724,11 @@
       <c r="C380">
         <v>1521736</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380">
+        <v>15704</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44255</v>
       </c>
@@ -4594,8 +5738,11 @@
       <c r="C381">
         <v>1532872</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <v>11136</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44256</v>
       </c>
@@ -4605,8 +5752,11 @@
       <c r="C382">
         <v>1565021</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <v>32149</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44257</v>
       </c>
@@ -4616,8 +5766,11 @@
       <c r="C383">
         <v>1603179</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <v>38158</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44258</v>
       </c>
@@ -4627,8 +5780,11 @@
       <c r="C384">
         <v>1641874</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <v>38695</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44259</v>
       </c>
@@ -4638,8 +5794,11 @@
       <c r="C385">
         <v>1685611</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44260</v>
       </c>
@@ -4649,8 +5808,11 @@
       <c r="C386">
         <v>1732964</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <v>47353</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44261</v>
       </c>
@@ -4660,8 +5822,11 @@
       <c r="C387">
         <v>1781602</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>48638</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44262</v>
       </c>
@@ -4671,8 +5836,11 @@
       <c r="C388">
         <v>1826786</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44263</v>
       </c>
@@ -4682,8 +5850,11 @@
       <c r="C389">
         <v>1870244</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44264</v>
       </c>
@@ -4693,8 +5864,11 @@
       <c r="C390">
         <v>1918443</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>48199</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44265</v>
       </c>
@@ -4704,8 +5878,11 @@
       <c r="C391">
         <v>1969846</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <v>51403</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44266</v>
       </c>
@@ -4715,8 +5892,11 @@
       <c r="C392">
         <v>2019757</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <v>49911</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44267</v>
       </c>
@@ -4726,8 +5906,11 @@
       <c r="C393">
         <v>2069143</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>49386</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44268</v>
       </c>
@@ -4737,8 +5920,11 @@
       <c r="C394">
         <v>2117865</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <v>48722</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44269</v>
       </c>
@@ -4748,8 +5934,11 @@
       <c r="C395">
         <v>2160564</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>42699</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44270</v>
       </c>
@@ -4759,8 +5948,11 @@
       <c r="C396">
         <v>2210140</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <v>49576</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44271</v>
       </c>
@@ -4770,8 +5962,11 @@
       <c r="C397">
         <v>2270124</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <v>59984</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44272</v>
       </c>
@@ -4781,8 +5976,11 @@
       <c r="C398">
         <v>2324405</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <v>54281</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44273</v>
       </c>
@@ -4792,8 +5990,11 @@
       <c r="C399">
         <v>2376330</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <v>51925</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44274</v>
       </c>
@@ -4803,8 +6004,11 @@
       <c r="C400">
         <v>2426191</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400">
+        <v>49861</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44275</v>
       </c>
@@ -4814,8 +6018,11 @@
       <c r="C401">
         <v>2477095</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401">
+        <v>50904</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44276</v>
       </c>
@@ -4825,8 +6032,11 @@
       <c r="C402">
         <v>2521512</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44277</v>
       </c>
@@ -4836,8 +6046,11 @@
       <c r="C403">
         <v>2568108</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <v>46596</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44278</v>
       </c>
@@ -4847,8 +6060,11 @@
       <c r="C404">
         <v>2626770</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <v>58662</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44279</v>
       </c>
@@ -4858,8 +6074,11 @@
       <c r="C405">
         <v>2685878</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <v>59108</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44280</v>
       </c>
@@ -4869,8 +6088,11 @@
       <c r="C406">
         <v>2744764</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <v>58886</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44281</v>
       </c>
@@ -4880,8 +6102,11 @@
       <c r="C407">
         <v>2799895</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <v>55131</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44282</v>
       </c>
@@ -4891,8 +6116,11 @@
       <c r="C408">
         <v>2858442</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408">
+        <v>58547</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44283</v>
       </c>
@@ -4902,8 +6130,11 @@
       <c r="C409">
         <v>2913155</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409">
+        <v>54713</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44284</v>
       </c>
@@ -4913,8 +6144,11 @@
       <c r="C410">
         <v>2965613</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410">
+        <v>52458</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44285</v>
       </c>
@@ -4924,8 +6158,11 @@
       <c r="C411">
         <v>3030031</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411">
+        <v>64418</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44286</v>
       </c>
@@ -4935,8 +6172,11 @@
       <c r="C412">
         <v>3088292</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412">
+        <v>58261</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44287</v>
       </c>
@@ -4946,8 +6186,11 @@
       <c r="C413">
         <v>3145907</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413">
+        <v>57615</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44288</v>
       </c>
@@ -4957,8 +6200,11 @@
       <c r="C414">
         <v>3203876</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414">
+        <v>57969</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44289</v>
       </c>
@@ -4968,8 +6214,11 @@
       <c r="C415">
         <v>3259301</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415">
+        <v>55425</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44290</v>
       </c>
@@ -4979,8 +6228,11 @@
       <c r="C416">
         <v>3307636</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416">
+        <v>48335</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44291</v>
       </c>
@@ -4990,8 +6242,11 @@
       <c r="C417">
         <v>3359006</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417">
+        <v>51370</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44292</v>
       </c>
@@ -5001,8 +6256,11 @@
       <c r="C418">
         <v>3413955</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418">
+        <v>54949</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44293</v>
       </c>
@@ -5012,8 +6270,11 @@
       <c r="C419">
         <v>3469294</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419">
+        <v>55339</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44294</v>
       </c>
@@ -5023,8 +6284,11 @@
       <c r="C420">
         <v>3526117</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420">
+        <v>56823</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44295</v>
       </c>
@@ -5034,8 +6298,11 @@
       <c r="C421">
         <v>3580406</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421">
+        <v>54289</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44296</v>
       </c>
@@ -5045,8 +6312,11 @@
       <c r="C422">
         <v>3642345</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422">
+        <v>61939</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44297</v>
       </c>
@@ -5056,8 +6326,11 @@
       <c r="C423">
         <v>3699333</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423">
+        <v>56988</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44298</v>
       </c>
@@ -5067,8 +6340,11 @@
       <c r="C424">
         <v>3762214</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424">
+        <v>62881</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44299</v>
       </c>
@@ -5078,8 +6354,11 @@
       <c r="C425">
         <v>3838804</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425">
+        <v>76590</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44300</v>
       </c>
@@ -5089,8 +6368,11 @@
       <c r="C426">
         <v>3918924</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426">
+        <v>80120</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44301</v>
       </c>
@@ -5100,8 +6382,11 @@
       <c r="C427">
         <v>3998980</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427">
+        <v>80056</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44302</v>
       </c>
@@ -5111,8 +6396,11 @@
       <c r="C428">
         <v>4078614</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428">
+        <v>79634</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44303</v>
       </c>
@@ -5122,8 +6410,11 @@
       <c r="C429">
         <v>4159792</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429">
+        <v>81178</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44304</v>
       </c>
@@ -5133,8 +6424,11 @@
       <c r="C430">
         <v>4231714</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430">
+        <v>71922</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44305</v>
       </c>
@@ -5144,8 +6438,11 @@
       <c r="C431">
         <v>4306981</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431">
+        <v>75267</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44306</v>
       </c>
@@ -5155,8 +6452,11 @@
       <c r="C432">
         <v>4395865</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432">
+        <v>88884</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44307</v>
       </c>
@@ -5166,8 +6466,11 @@
       <c r="C433">
         <v>4487643</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433">
+        <v>91778</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44308</v>
       </c>
@@ -5177,8 +6480,11 @@
       <c r="C434">
         <v>4575020</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434">
+        <v>87377</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44309</v>
       </c>
@@ -5188,8 +6494,11 @@
       <c r="C435">
         <v>4665420</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435">
+        <v>90400</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44310</v>
       </c>
@@ -5199,8 +6508,11 @@
       <c r="C436">
         <v>4755099</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436">
+        <v>89679</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44311</v>
       </c>
@@ -5210,8 +6522,11 @@
       <c r="C437">
         <v>4832203</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437">
+        <v>77104</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44312</v>
       </c>
@@ -5221,8 +6536,11 @@
       <c r="C438">
         <v>4913012</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438">
+        <v>80809</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44313</v>
       </c>
@@ -5232,8 +6550,11 @@
       <c r="C439">
         <v>4913012</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44314</v>
       </c>
@@ -5243,8 +6564,11 @@
       <c r="C440">
         <v>5081449</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440">
+        <v>168437</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44315</v>
       </c>
@@ -5253,6 +6577,9 @@
       </c>
       <c r="C441">
         <v>5161840</v>
+      </c>
+      <c r="D441">
+        <v>80391</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Campean/persoane_vaccinate.xlsx
+++ b/Database/Campean/persoane_vaccinate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository_licenta\Licenta_covid19_UTCN\Database\Campean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\New folder\Licenta_covid19_UTCN\Database\Campean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA7F09B-F48D-47DA-BAB4-6E8C947C3F40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D3E20-86B3-4DA7-AD18-3A61CCB0A9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-288" yWindow="2079" windowWidth="12998" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>nr. zi</t>
   </si>
   <si>
-    <t>persoane vaccinate total</t>
+    <t>persoane vaccinate zilnic</t>
   </si>
   <si>
-    <t>persoane vaccinate zilnic</t>
+    <t>nr. vaccine total</t>
   </si>
 </sst>
 </file>
@@ -394,21 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D441"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="F493" sqref="F493"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43876</v>
       </c>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43877</v>
       </c>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43878</v>
       </c>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43879</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43880</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43881</v>
       </c>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43882</v>
       </c>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43883</v>
       </c>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43884</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43885</v>
       </c>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43886</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43887</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43888</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43889</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43890</v>
       </c>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43891</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43892</v>
       </c>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43893</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43894</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43895</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43896</v>
       </c>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43897</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43898</v>
       </c>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43899</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43900</v>
       </c>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43901</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43902</v>
       </c>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43903</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43904</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43905</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43906</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43907</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43908</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43909</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43910</v>
       </c>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43911</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43912</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43913</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43914</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43915</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43916</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43917</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43918</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43919</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43920</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43921</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43922</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43923</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43924</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43925</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43926</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43927</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43928</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43929</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43930</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43931</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43932</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43933</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43934</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43935</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43936</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43937</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43938</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43939</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43940</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43941</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43942</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43943</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43944</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43945</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43946</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43947</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43948</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43949</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43950</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43951</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43952</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43953</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43954</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43955</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43956</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43957</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43958</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43959</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43960</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43961</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43962</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43963</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43964</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43965</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43966</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43967</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43968</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43969</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43970</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43971</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43972</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43973</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43974</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43975</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43976</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43977</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43978</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43979</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43980</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43981</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43982</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43983</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43984</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43985</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43986</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43987</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43988</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43989</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43990</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43991</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43992</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43993</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43994</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43995</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43996</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43997</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43998</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43999</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44000</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44001</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44002</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44003</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44004</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44005</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44006</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44007</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44008</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44009</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44010</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44011</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44012</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44013</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44014</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44015</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44016</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44017</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44018</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44019</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44020</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44021</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44022</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44023</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44024</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44025</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44026</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44027</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44028</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44029</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44030</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44031</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44032</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44033</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44034</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44035</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44036</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44037</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44038</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44039</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44040</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44041</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44042</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44043</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44044</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44045</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44046</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44047</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44048</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44049</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44050</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44051</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44052</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44053</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44054</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44055</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44056</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44057</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44058</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44059</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44060</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44061</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44062</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44063</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44064</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44065</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44066</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44067</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44068</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44069</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44070</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44071</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44072</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44073</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44074</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44075</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44076</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44077</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44078</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44079</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44080</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44081</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44082</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44083</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44084</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44085</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44086</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44087</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44088</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44089</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44090</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44091</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44092</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44093</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44094</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44095</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44096</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44097</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44098</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44099</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44100</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44101</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44102</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44103</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44104</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44105</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44106</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44107</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44108</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44109</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44110</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44111</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44112</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44113</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44114</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44115</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44116</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44117</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44118</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44119</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44120</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44121</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44122</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44123</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44124</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44125</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44126</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44127</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44128</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44129</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44130</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44131</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44132</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44133</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44134</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44135</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44136</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44137</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44138</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44139</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44140</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44141</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44142</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44143</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44144</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44145</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44146</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44147</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44148</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44149</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44150</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44151</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44152</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44153</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44154</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44155</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44156</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44157</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44158</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44159</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44160</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44161</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44162</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44163</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44164</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44165</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44166</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44167</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44168</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44169</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44170</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44171</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44172</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44173</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44174</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44175</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44176</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44177</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44178</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44179</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44180</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44181</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44182</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44183</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44184</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44185</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44186</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44187</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44188</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44189</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44190</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44191</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44192</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44193</v>
       </c>
@@ -4868,13 +4868,14 @@
         <v>318</v>
       </c>
       <c r="C319">
+        <f>SUM(C318,D319)</f>
         <v>2066</v>
       </c>
       <c r="D319">
         <v>1101</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44194</v>
       </c>
@@ -4882,13 +4883,14 @@
         <v>319</v>
       </c>
       <c r="C320">
+        <f t="shared" ref="C320:C383" si="0">SUM(C319,D320)</f>
         <v>2778</v>
       </c>
       <c r="D320">
         <v>712</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44195</v>
       </c>
@@ -4896,13 +4898,14 @@
         <v>320</v>
       </c>
       <c r="C321">
+        <f t="shared" si="0"/>
         <v>5666</v>
       </c>
       <c r="D321">
         <v>2888</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44196</v>
       </c>
@@ -4910,13 +4913,14 @@
         <v>321</v>
       </c>
       <c r="C322">
+        <f t="shared" si="0"/>
         <v>10289</v>
       </c>
       <c r="D322">
         <v>4623</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44197</v>
       </c>
@@ -4924,13 +4928,14 @@
         <v>322</v>
       </c>
       <c r="C323">
+        <f t="shared" si="0"/>
         <v>11656</v>
       </c>
       <c r="D323">
         <v>1367</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44198</v>
       </c>
@@ -4938,13 +4943,14 @@
         <v>323</v>
       </c>
       <c r="C324">
+        <f t="shared" si="0"/>
         <v>13242</v>
       </c>
       <c r="D324">
         <v>1586</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44199</v>
       </c>
@@ -4952,13 +4958,14 @@
         <v>324</v>
       </c>
       <c r="C325">
+        <f t="shared" si="0"/>
         <v>13596</v>
       </c>
       <c r="D325">
         <v>354</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44200</v>
       </c>
@@ -4966,13 +4973,14 @@
         <v>325</v>
       </c>
       <c r="C326">
+        <f t="shared" si="0"/>
         <v>25508</v>
       </c>
       <c r="D326">
         <v>11912</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44201</v>
       </c>
@@ -4980,13 +4988,14 @@
         <v>326</v>
       </c>
       <c r="C327">
+        <f t="shared" si="0"/>
         <v>41609</v>
       </c>
       <c r="D327">
         <v>16101</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44202</v>
       </c>
@@ -4994,13 +5003,14 @@
         <v>327</v>
       </c>
       <c r="C328">
+        <f t="shared" si="0"/>
         <v>58554</v>
       </c>
       <c r="D328">
         <v>16945</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44203</v>
       </c>
@@ -5008,13 +5018,14 @@
         <v>328</v>
       </c>
       <c r="C329">
+        <f t="shared" si="0"/>
         <v>76400</v>
       </c>
       <c r="D329">
         <v>17846</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44204</v>
       </c>
@@ -5022,13 +5033,14 @@
         <v>329</v>
       </c>
       <c r="C330">
+        <f t="shared" si="0"/>
         <v>92706</v>
       </c>
       <c r="D330">
         <v>16306</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44205</v>
       </c>
@@ -5036,13 +5048,14 @@
         <v>330</v>
       </c>
       <c r="C331">
+        <f t="shared" si="0"/>
         <v>102301</v>
       </c>
       <c r="D331">
         <v>9595</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44206</v>
       </c>
@@ -5050,13 +5063,14 @@
         <v>331</v>
       </c>
       <c r="C332">
+        <f t="shared" si="0"/>
         <v>108294</v>
       </c>
       <c r="D332">
         <v>5993</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44207</v>
       </c>
@@ -5064,13 +5078,14 @@
         <v>332</v>
       </c>
       <c r="C333">
+        <f t="shared" si="0"/>
         <v>125190</v>
       </c>
       <c r="D333">
         <v>16896</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44208</v>
       </c>
@@ -5078,13 +5093,14 @@
         <v>333</v>
       </c>
       <c r="C334">
+        <f t="shared" si="0"/>
         <v>140447</v>
       </c>
       <c r="D334">
         <v>15257</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44209</v>
       </c>
@@ -5092,13 +5108,14 @@
         <v>334</v>
       </c>
       <c r="C335">
+        <f t="shared" si="0"/>
         <v>154268</v>
       </c>
       <c r="D335">
         <v>13821</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44210</v>
       </c>
@@ -5106,13 +5123,14 @@
         <v>335</v>
       </c>
       <c r="C336">
+        <f t="shared" si="0"/>
         <v>154268</v>
       </c>
       <c r="D336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44211</v>
       </c>
@@ -5120,13 +5138,14 @@
         <v>336</v>
       </c>
       <c r="C337">
+        <f t="shared" si="0"/>
         <v>183669</v>
       </c>
       <c r="D337">
         <v>29401</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44212</v>
       </c>
@@ -5134,13 +5153,14 @@
         <v>337</v>
       </c>
       <c r="C338">
+        <f t="shared" si="0"/>
         <v>196090</v>
       </c>
       <c r="D338">
         <v>12421</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44213</v>
       </c>
@@ -5148,13 +5168,14 @@
         <v>338</v>
       </c>
       <c r="C339">
+        <f t="shared" si="0"/>
         <v>204185</v>
       </c>
       <c r="D339">
         <v>8095</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44214</v>
       </c>
@@ -5162,13 +5183,14 @@
         <v>339</v>
       </c>
       <c r="C340">
+        <f t="shared" si="0"/>
         <v>235239</v>
       </c>
       <c r="D340">
         <v>31054</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44215</v>
       </c>
@@ -5176,13 +5198,14 @@
         <v>340</v>
       </c>
       <c r="C341">
+        <f t="shared" si="0"/>
         <v>270046</v>
       </c>
       <c r="D341">
         <v>34807</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44216</v>
       </c>
@@ -5190,13 +5213,14 @@
         <v>341</v>
       </c>
       <c r="C342">
+        <f t="shared" si="0"/>
         <v>308384</v>
       </c>
       <c r="D342">
         <v>38338</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44217</v>
       </c>
@@ -5204,13 +5228,14 @@
         <v>342</v>
       </c>
       <c r="C343">
+        <f t="shared" si="0"/>
         <v>348096</v>
       </c>
       <c r="D343">
         <v>39712</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44218</v>
       </c>
@@ -5218,13 +5243,14 @@
         <v>343</v>
       </c>
       <c r="C344">
+        <f t="shared" si="0"/>
         <v>385936</v>
       </c>
       <c r="D344">
         <v>37840</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44219</v>
       </c>
@@ -5232,13 +5258,14 @@
         <v>344</v>
       </c>
       <c r="C345">
+        <f t="shared" si="0"/>
         <v>418885</v>
       </c>
       <c r="D345">
         <v>32949</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44220</v>
       </c>
@@ -5246,13 +5273,14 @@
         <v>345</v>
       </c>
       <c r="C346">
+        <f t="shared" si="0"/>
         <v>446285</v>
       </c>
       <c r="D346">
         <v>27400</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44221</v>
       </c>
@@ -5260,13 +5288,14 @@
         <v>346</v>
       </c>
       <c r="C347">
+        <f t="shared" si="0"/>
         <v>484631</v>
       </c>
       <c r="D347">
         <v>38346</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44222</v>
       </c>
@@ -5274,13 +5303,14 @@
         <v>347</v>
       </c>
       <c r="C348">
+        <f t="shared" si="0"/>
         <v>528378</v>
       </c>
       <c r="D348">
         <v>43747</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44223</v>
       </c>
@@ -5288,13 +5318,14 @@
         <v>348</v>
       </c>
       <c r="C349">
+        <f t="shared" si="0"/>
         <v>570704</v>
       </c>
       <c r="D349">
         <v>42326</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44224</v>
       </c>
@@ -5302,13 +5333,14 @@
         <v>349</v>
       </c>
       <c r="C350">
+        <f t="shared" si="0"/>
         <v>609396</v>
       </c>
       <c r="D350">
         <v>38692</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44225</v>
       </c>
@@ -5316,13 +5348,14 @@
         <v>350</v>
       </c>
       <c r="C351">
+        <f t="shared" si="0"/>
         <v>647000</v>
       </c>
       <c r="D351">
         <v>37604</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44226</v>
       </c>
@@ -5330,13 +5363,14 @@
         <v>351</v>
       </c>
       <c r="C352">
+        <f t="shared" si="0"/>
         <v>672396</v>
       </c>
       <c r="D352">
         <v>25396</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44227</v>
       </c>
@@ -5344,13 +5378,14 @@
         <v>352</v>
       </c>
       <c r="C353">
+        <f t="shared" si="0"/>
         <v>691415</v>
       </c>
       <c r="D353">
         <v>19019</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44228</v>
       </c>
@@ -5358,13 +5393,14 @@
         <v>353</v>
       </c>
       <c r="C354">
+        <f t="shared" si="0"/>
         <v>721184</v>
       </c>
       <c r="D354">
         <v>29769</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44229</v>
       </c>
@@ -5372,13 +5408,14 @@
         <v>354</v>
       </c>
       <c r="C355">
+        <f t="shared" si="0"/>
         <v>748732</v>
       </c>
       <c r="D355">
         <v>27548</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44230</v>
       </c>
@@ -5386,13 +5423,14 @@
         <v>355</v>
       </c>
       <c r="C356">
+        <f t="shared" si="0"/>
         <v>772202</v>
       </c>
       <c r="D356">
         <v>23470</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44231</v>
       </c>
@@ -5400,13 +5438,14 @@
         <v>356</v>
       </c>
       <c r="C357">
+        <f t="shared" si="0"/>
         <v>794795</v>
       </c>
       <c r="D357">
         <v>22593</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44232</v>
       </c>
@@ -5414,13 +5453,14 @@
         <v>357</v>
       </c>
       <c r="C358">
+        <f t="shared" si="0"/>
         <v>821552</v>
       </c>
       <c r="D358">
         <v>26757</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44233</v>
       </c>
@@ -5428,13 +5468,14 @@
         <v>358</v>
       </c>
       <c r="C359">
+        <f t="shared" si="0"/>
         <v>840812</v>
       </c>
       <c r="D359">
         <v>19260</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44234</v>
       </c>
@@ -5442,13 +5483,14 @@
         <v>359</v>
       </c>
       <c r="C360">
+        <f t="shared" si="0"/>
         <v>856322</v>
       </c>
       <c r="D360">
         <v>15510</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44235</v>
       </c>
@@ -5456,13 +5498,14 @@
         <v>360</v>
       </c>
       <c r="C361">
+        <f t="shared" si="0"/>
         <v>891348</v>
       </c>
       <c r="D361">
         <v>35026</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44236</v>
       </c>
@@ -5470,13 +5513,14 @@
         <v>361</v>
       </c>
       <c r="C362">
+        <f t="shared" si="0"/>
         <v>930155</v>
       </c>
       <c r="D362">
         <v>38807</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44237</v>
       </c>
@@ -5484,13 +5528,14 @@
         <v>362</v>
       </c>
       <c r="C363">
+        <f t="shared" si="0"/>
         <v>970967</v>
       </c>
       <c r="D363">
         <v>40812</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44238</v>
       </c>
@@ -5498,13 +5543,14 @@
         <v>363</v>
       </c>
       <c r="C364">
+        <f t="shared" si="0"/>
         <v>1009421</v>
       </c>
       <c r="D364">
         <v>38454</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44239</v>
       </c>
@@ -5512,13 +5558,14 @@
         <v>364</v>
       </c>
       <c r="C365">
+        <f t="shared" si="0"/>
         <v>1048797</v>
       </c>
       <c r="D365">
         <v>39376</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44240</v>
       </c>
@@ -5526,13 +5573,14 @@
         <v>365</v>
       </c>
       <c r="C366">
+        <f t="shared" si="0"/>
         <v>1084096</v>
       </c>
       <c r="D366">
         <v>35299</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44241</v>
       </c>
@@ -5540,13 +5588,14 @@
         <v>366</v>
       </c>
       <c r="C367">
+        <f t="shared" si="0"/>
         <v>1113975</v>
       </c>
       <c r="D367">
         <v>29879</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44242</v>
       </c>
@@ -5554,13 +5603,14 @@
         <v>367</v>
       </c>
       <c r="C368">
+        <f t="shared" si="0"/>
         <v>1151112</v>
       </c>
       <c r="D368">
         <v>37137</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44243</v>
       </c>
@@ -5568,13 +5618,14 @@
         <v>368</v>
       </c>
       <c r="C369">
+        <f t="shared" si="0"/>
         <v>1197089</v>
       </c>
       <c r="D369">
         <v>45977</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44244</v>
       </c>
@@ -5582,13 +5633,14 @@
         <v>369</v>
       </c>
       <c r="C370">
+        <f t="shared" si="0"/>
         <v>1240408</v>
       </c>
       <c r="D370">
         <v>43319</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44245</v>
       </c>
@@ -5596,13 +5648,14 @@
         <v>370</v>
       </c>
       <c r="C371">
+        <f t="shared" si="0"/>
         <v>1280228</v>
       </c>
       <c r="D371">
         <v>39820</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44246</v>
       </c>
@@ -5610,13 +5663,14 @@
         <v>371</v>
       </c>
       <c r="C372">
+        <f t="shared" si="0"/>
         <v>1318355</v>
       </c>
       <c r="D372">
         <v>38127</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44247</v>
       </c>
@@ -5624,13 +5678,14 @@
         <v>372</v>
       </c>
       <c r="C373">
+        <f t="shared" si="0"/>
         <v>1351279</v>
       </c>
       <c r="D373">
         <v>32924</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44248</v>
       </c>
@@ -5638,13 +5693,14 @@
         <v>373</v>
       </c>
       <c r="C374">
+        <f t="shared" si="0"/>
         <v>1379223</v>
       </c>
       <c r="D374">
         <v>27944</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44249</v>
       </c>
@@ -5652,13 +5708,14 @@
         <v>374</v>
       </c>
       <c r="C375">
+        <f t="shared" si="0"/>
         <v>1409087</v>
       </c>
       <c r="D375">
         <v>29864</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44250</v>
       </c>
@@ -5666,13 +5723,14 @@
         <v>375</v>
       </c>
       <c r="C376">
+        <f t="shared" si="0"/>
         <v>1438432</v>
       </c>
       <c r="D376">
         <v>29345</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44251</v>
       </c>
@@ -5680,13 +5738,14 @@
         <v>376</v>
       </c>
       <c r="C377">
+        <f t="shared" si="0"/>
         <v>1466649</v>
       </c>
       <c r="D377">
         <v>28217</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44252</v>
       </c>
@@ -5694,13 +5753,14 @@
         <v>377</v>
       </c>
       <c r="C378">
+        <f t="shared" si="0"/>
         <v>1486907</v>
       </c>
       <c r="D378">
         <v>20258</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44253</v>
       </c>
@@ -5708,13 +5768,14 @@
         <v>378</v>
       </c>
       <c r="C379">
+        <f t="shared" si="0"/>
         <v>1506032</v>
       </c>
       <c r="D379">
         <v>19125</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44254</v>
       </c>
@@ -5722,13 +5783,14 @@
         <v>379</v>
       </c>
       <c r="C380">
+        <f t="shared" si="0"/>
         <v>1521736</v>
       </c>
       <c r="D380">
         <v>15704</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44255</v>
       </c>
@@ -5736,13 +5798,14 @@
         <v>380</v>
       </c>
       <c r="C381">
+        <f t="shared" si="0"/>
         <v>1532872</v>
       </c>
       <c r="D381">
         <v>11136</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44256</v>
       </c>
@@ -5750,13 +5813,14 @@
         <v>381</v>
       </c>
       <c r="C382">
+        <f t="shared" si="0"/>
         <v>1565021</v>
       </c>
       <c r="D382">
         <v>32149</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44257</v>
       </c>
@@ -5764,13 +5828,14 @@
         <v>382</v>
       </c>
       <c r="C383">
+        <f t="shared" si="0"/>
         <v>1603179</v>
       </c>
       <c r="D383">
         <v>38158</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44258</v>
       </c>
@@ -5778,13 +5843,14 @@
         <v>383</v>
       </c>
       <c r="C384">
+        <f t="shared" ref="C384:C447" si="1">SUM(C383,D384)</f>
         <v>1641874</v>
       </c>
       <c r="D384">
         <v>38695</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44259</v>
       </c>
@@ -5792,13 +5858,14 @@
         <v>384</v>
       </c>
       <c r="C385">
+        <f t="shared" si="1"/>
         <v>1685611</v>
       </c>
       <c r="D385">
         <v>43737</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44260</v>
       </c>
@@ -5806,13 +5873,14 @@
         <v>385</v>
       </c>
       <c r="C386">
+        <f t="shared" si="1"/>
         <v>1732964</v>
       </c>
       <c r="D386">
         <v>47353</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44261</v>
       </c>
@@ -5820,13 +5888,14 @@
         <v>386</v>
       </c>
       <c r="C387">
+        <f t="shared" si="1"/>
         <v>1781602</v>
       </c>
       <c r="D387">
         <v>48638</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44262</v>
       </c>
@@ -5834,13 +5903,14 @@
         <v>387</v>
       </c>
       <c r="C388">
+        <f t="shared" si="1"/>
         <v>1826786</v>
       </c>
       <c r="D388">
         <v>45184</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44263</v>
       </c>
@@ -5848,13 +5918,14 @@
         <v>388</v>
       </c>
       <c r="C389">
+        <f t="shared" si="1"/>
         <v>1870244</v>
       </c>
       <c r="D389">
         <v>43458</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44264</v>
       </c>
@@ -5862,13 +5933,14 @@
         <v>389</v>
       </c>
       <c r="C390">
+        <f t="shared" si="1"/>
         <v>1918443</v>
       </c>
       <c r="D390">
         <v>48199</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44265</v>
       </c>
@@ -5876,13 +5948,14 @@
         <v>390</v>
       </c>
       <c r="C391">
+        <f t="shared" si="1"/>
         <v>1969846</v>
       </c>
       <c r="D391">
         <v>51403</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44266</v>
       </c>
@@ -5890,13 +5963,14 @@
         <v>391</v>
       </c>
       <c r="C392">
+        <f t="shared" si="1"/>
         <v>2019757</v>
       </c>
       <c r="D392">
         <v>49911</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44267</v>
       </c>
@@ -5904,13 +5978,14 @@
         <v>392</v>
       </c>
       <c r="C393">
+        <f t="shared" si="1"/>
         <v>2069143</v>
       </c>
       <c r="D393">
         <v>49386</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44268</v>
       </c>
@@ -5918,13 +5993,14 @@
         <v>393</v>
       </c>
       <c r="C394">
+        <f t="shared" si="1"/>
         <v>2117865</v>
       </c>
       <c r="D394">
         <v>48722</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44269</v>
       </c>
@@ -5932,13 +6008,14 @@
         <v>394</v>
       </c>
       <c r="C395">
+        <f t="shared" si="1"/>
         <v>2160564</v>
       </c>
       <c r="D395">
         <v>42699</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44270</v>
       </c>
@@ -5946,13 +6023,14 @@
         <v>395</v>
       </c>
       <c r="C396">
+        <f t="shared" si="1"/>
         <v>2210140</v>
       </c>
       <c r="D396">
         <v>49576</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44271</v>
       </c>
@@ -5960,13 +6038,14 @@
         <v>396</v>
       </c>
       <c r="C397">
+        <f t="shared" si="1"/>
         <v>2270124</v>
       </c>
       <c r="D397">
         <v>59984</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44272</v>
       </c>
@@ -5974,13 +6053,14 @@
         <v>397</v>
       </c>
       <c r="C398">
+        <f t="shared" si="1"/>
         <v>2324405</v>
       </c>
       <c r="D398">
         <v>54281</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44273</v>
       </c>
@@ -5988,13 +6068,14 @@
         <v>398</v>
       </c>
       <c r="C399">
+        <f t="shared" si="1"/>
         <v>2376330</v>
       </c>
       <c r="D399">
         <v>51925</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44274</v>
       </c>
@@ -6002,13 +6083,14 @@
         <v>399</v>
       </c>
       <c r="C400">
+        <f t="shared" si="1"/>
         <v>2426191</v>
       </c>
       <c r="D400">
         <v>49861</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44275</v>
       </c>
@@ -6016,13 +6098,14 @@
         <v>400</v>
       </c>
       <c r="C401">
+        <f t="shared" si="1"/>
         <v>2477095</v>
       </c>
       <c r="D401">
         <v>50904</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44276</v>
       </c>
@@ -6030,13 +6113,14 @@
         <v>401</v>
       </c>
       <c r="C402">
+        <f t="shared" si="1"/>
         <v>2521512</v>
       </c>
       <c r="D402">
         <v>44417</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44277</v>
       </c>
@@ -6044,13 +6128,14 @@
         <v>402</v>
       </c>
       <c r="C403">
+        <f t="shared" si="1"/>
         <v>2568108</v>
       </c>
       <c r="D403">
         <v>46596</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44278</v>
       </c>
@@ -6058,13 +6143,14 @@
         <v>403</v>
       </c>
       <c r="C404">
+        <f t="shared" si="1"/>
         <v>2626770</v>
       </c>
       <c r="D404">
         <v>58662</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44279</v>
       </c>
@@ -6072,13 +6158,14 @@
         <v>404</v>
       </c>
       <c r="C405">
+        <f t="shared" si="1"/>
         <v>2685878</v>
       </c>
       <c r="D405">
         <v>59108</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44280</v>
       </c>
@@ -6086,13 +6173,14 @@
         <v>405</v>
       </c>
       <c r="C406">
+        <f t="shared" si="1"/>
         <v>2744764</v>
       </c>
       <c r="D406">
         <v>58886</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44281</v>
       </c>
@@ -6100,13 +6188,14 @@
         <v>406</v>
       </c>
       <c r="C407">
+        <f t="shared" si="1"/>
         <v>2799895</v>
       </c>
       <c r="D407">
         <v>55131</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44282</v>
       </c>
@@ -6114,13 +6203,14 @@
         <v>407</v>
       </c>
       <c r="C408">
+        <f t="shared" si="1"/>
         <v>2858442</v>
       </c>
       <c r="D408">
         <v>58547</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44283</v>
       </c>
@@ -6128,13 +6218,14 @@
         <v>408</v>
       </c>
       <c r="C409">
+        <f t="shared" si="1"/>
         <v>2913155</v>
       </c>
       <c r="D409">
         <v>54713</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44284</v>
       </c>
@@ -6142,13 +6233,14 @@
         <v>409</v>
       </c>
       <c r="C410">
+        <f t="shared" si="1"/>
         <v>2965613</v>
       </c>
       <c r="D410">
         <v>52458</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44285</v>
       </c>
@@ -6156,13 +6248,14 @@
         <v>410</v>
       </c>
       <c r="C411">
+        <f t="shared" si="1"/>
         <v>3030031</v>
       </c>
       <c r="D411">
         <v>64418</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44286</v>
       </c>
@@ -6170,13 +6263,14 @@
         <v>411</v>
       </c>
       <c r="C412">
+        <f t="shared" si="1"/>
         <v>3088292</v>
       </c>
       <c r="D412">
         <v>58261</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44287</v>
       </c>
@@ -6184,13 +6278,14 @@
         <v>412</v>
       </c>
       <c r="C413">
+        <f t="shared" si="1"/>
         <v>3145907</v>
       </c>
       <c r="D413">
         <v>57615</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44288</v>
       </c>
@@ -6198,13 +6293,14 @@
         <v>413</v>
       </c>
       <c r="C414">
+        <f t="shared" si="1"/>
         <v>3203876</v>
       </c>
       <c r="D414">
         <v>57969</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44289</v>
       </c>
@@ -6212,13 +6308,14 @@
         <v>414</v>
       </c>
       <c r="C415">
+        <f t="shared" si="1"/>
         <v>3259301</v>
       </c>
       <c r="D415">
         <v>55425</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44290</v>
       </c>
@@ -6226,13 +6323,14 @@
         <v>415</v>
       </c>
       <c r="C416">
+        <f t="shared" si="1"/>
         <v>3307636</v>
       </c>
       <c r="D416">
         <v>48335</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44291</v>
       </c>
@@ -6240,13 +6338,14 @@
         <v>416</v>
       </c>
       <c r="C417">
+        <f t="shared" si="1"/>
         <v>3359006</v>
       </c>
       <c r="D417">
         <v>51370</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44292</v>
       </c>
@@ -6254,13 +6353,14 @@
         <v>417</v>
       </c>
       <c r="C418">
+        <f t="shared" si="1"/>
         <v>3413955</v>
       </c>
       <c r="D418">
         <v>54949</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44293</v>
       </c>
@@ -6268,13 +6368,14 @@
         <v>418</v>
       </c>
       <c r="C419">
+        <f t="shared" si="1"/>
         <v>3469294</v>
       </c>
       <c r="D419">
         <v>55339</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44294</v>
       </c>
@@ -6282,13 +6383,14 @@
         <v>419</v>
       </c>
       <c r="C420">
+        <f t="shared" si="1"/>
         <v>3526117</v>
       </c>
       <c r="D420">
         <v>56823</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44295</v>
       </c>
@@ -6296,13 +6398,14 @@
         <v>420</v>
       </c>
       <c r="C421">
+        <f t="shared" si="1"/>
         <v>3580406</v>
       </c>
       <c r="D421">
         <v>54289</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44296</v>
       </c>
@@ -6310,13 +6413,14 @@
         <v>421</v>
       </c>
       <c r="C422">
+        <f t="shared" si="1"/>
         <v>3642345</v>
       </c>
       <c r="D422">
         <v>61939</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44297</v>
       </c>
@@ -6324,13 +6428,14 @@
         <v>422</v>
       </c>
       <c r="C423">
+        <f t="shared" si="1"/>
         <v>3699333</v>
       </c>
       <c r="D423">
         <v>56988</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44298</v>
       </c>
@@ -6338,13 +6443,14 @@
         <v>423</v>
       </c>
       <c r="C424">
+        <f t="shared" si="1"/>
         <v>3762214</v>
       </c>
       <c r="D424">
         <v>62881</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44299</v>
       </c>
@@ -6352,13 +6458,14 @@
         <v>424</v>
       </c>
       <c r="C425">
+        <f t="shared" si="1"/>
         <v>3838804</v>
       </c>
       <c r="D425">
         <v>76590</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44300</v>
       </c>
@@ -6366,13 +6473,14 @@
         <v>425</v>
       </c>
       <c r="C426">
+        <f t="shared" si="1"/>
         <v>3918924</v>
       </c>
       <c r="D426">
         <v>80120</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44301</v>
       </c>
@@ -6380,13 +6488,14 @@
         <v>426</v>
       </c>
       <c r="C427">
+        <f t="shared" si="1"/>
         <v>3998980</v>
       </c>
       <c r="D427">
         <v>80056</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44302</v>
       </c>
@@ -6394,13 +6503,14 @@
         <v>427</v>
       </c>
       <c r="C428">
+        <f t="shared" si="1"/>
         <v>4078614</v>
       </c>
       <c r="D428">
         <v>79634</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44303</v>
       </c>
@@ -6408,13 +6518,14 @@
         <v>428</v>
       </c>
       <c r="C429">
+        <f t="shared" si="1"/>
         <v>4159792</v>
       </c>
       <c r="D429">
         <v>81178</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44304</v>
       </c>
@@ -6422,13 +6533,14 @@
         <v>429</v>
       </c>
       <c r="C430">
+        <f t="shared" si="1"/>
         <v>4231714</v>
       </c>
       <c r="D430">
         <v>71922</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44305</v>
       </c>
@@ -6436,13 +6548,14 @@
         <v>430</v>
       </c>
       <c r="C431">
+        <f t="shared" si="1"/>
         <v>4306981</v>
       </c>
       <c r="D431">
         <v>75267</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44306</v>
       </c>
@@ -6450,13 +6563,14 @@
         <v>431</v>
       </c>
       <c r="C432">
+        <f t="shared" si="1"/>
         <v>4395865</v>
       </c>
       <c r="D432">
         <v>88884</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44307</v>
       </c>
@@ -6464,13 +6578,14 @@
         <v>432</v>
       </c>
       <c r="C433">
+        <f t="shared" si="1"/>
         <v>4487643</v>
       </c>
       <c r="D433">
         <v>91778</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44308</v>
       </c>
@@ -6478,13 +6593,14 @@
         <v>433</v>
       </c>
       <c r="C434">
+        <f t="shared" si="1"/>
         <v>4575020</v>
       </c>
       <c r="D434">
         <v>87377</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44309</v>
       </c>
@@ -6492,13 +6608,14 @@
         <v>434</v>
       </c>
       <c r="C435">
+        <f t="shared" si="1"/>
         <v>4665420</v>
       </c>
       <c r="D435">
         <v>90400</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44310</v>
       </c>
@@ -6506,13 +6623,14 @@
         <v>435</v>
       </c>
       <c r="C436">
+        <f t="shared" si="1"/>
         <v>4755099</v>
       </c>
       <c r="D436">
         <v>89679</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44311</v>
       </c>
@@ -6520,13 +6638,14 @@
         <v>436</v>
       </c>
       <c r="C437">
+        <f t="shared" si="1"/>
         <v>4832203</v>
       </c>
       <c r="D437">
         <v>77104</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44312</v>
       </c>
@@ -6534,13 +6653,14 @@
         <v>437</v>
       </c>
       <c r="C438">
+        <f t="shared" si="1"/>
         <v>4913012</v>
       </c>
       <c r="D438">
         <v>80809</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44313</v>
       </c>
@@ -6548,13 +6668,14 @@
         <v>438</v>
       </c>
       <c r="C439">
-        <v>4913012</v>
+        <f t="shared" si="1"/>
+        <v>4997659</v>
       </c>
       <c r="D439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84647</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44314</v>
       </c>
@@ -6562,13 +6683,14 @@
         <v>439</v>
       </c>
       <c r="C440">
+        <f t="shared" si="1"/>
         <v>5081449</v>
       </c>
       <c r="D440">
-        <v>168437</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83790</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44315</v>
       </c>
@@ -6576,11 +6698,756 @@
         <v>440</v>
       </c>
       <c r="C441">
+        <f t="shared" si="1"/>
         <v>5161840</v>
       </c>
       <c r="D441">
         <v>80391</v>
       </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B442">
+        <v>441</v>
+      </c>
+      <c r="C442">
+        <f t="shared" si="1"/>
+        <v>5240452</v>
+      </c>
+      <c r="D442">
+        <v>78612</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B443">
+        <v>442</v>
+      </c>
+      <c r="C443">
+        <f t="shared" si="1"/>
+        <v>5300469</v>
+      </c>
+      <c r="D443">
+        <v>60017</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B444">
+        <v>443</v>
+      </c>
+      <c r="C444">
+        <f t="shared" si="1"/>
+        <v>5341742</v>
+      </c>
+      <c r="D444">
+        <v>41273</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B445">
+        <v>444</v>
+      </c>
+      <c r="C445">
+        <f t="shared" si="1"/>
+        <v>5408309</v>
+      </c>
+      <c r="D445">
+        <v>66567</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B446">
+        <v>445</v>
+      </c>
+      <c r="C446">
+        <f t="shared" si="1"/>
+        <v>5493913</v>
+      </c>
+      <c r="D446">
+        <v>85604</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B447">
+        <v>446</v>
+      </c>
+      <c r="C447">
+        <f t="shared" si="1"/>
+        <v>5588267</v>
+      </c>
+      <c r="D447">
+        <v>94354</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B448">
+        <v>447</v>
+      </c>
+      <c r="C448">
+        <f t="shared" ref="C448:C493" si="2">SUM(C447,D448)</f>
+        <v>5688721</v>
+      </c>
+      <c r="D448">
+        <v>100454</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B449">
+        <v>448</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="2"/>
+        <v>5781222</v>
+      </c>
+      <c r="D449">
+        <v>92501</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B450">
+        <v>449</v>
+      </c>
+      <c r="C450">
+        <f t="shared" si="2"/>
+        <v>5891855</v>
+      </c>
+      <c r="D450">
+        <v>110633</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+      <c r="C451">
+        <f t="shared" si="2"/>
+        <v>5995792</v>
+      </c>
+      <c r="D451">
+        <v>103937</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B452">
+        <v>451</v>
+      </c>
+      <c r="C452">
+        <f t="shared" si="2"/>
+        <v>6095252</v>
+      </c>
+      <c r="D452">
+        <v>99460</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+      <c r="C453">
+        <f t="shared" si="2"/>
+        <v>6201096</v>
+      </c>
+      <c r="D453">
+        <v>105844</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B454">
+        <v>453</v>
+      </c>
+      <c r="C454">
+        <f t="shared" si="2"/>
+        <v>6305850</v>
+      </c>
+      <c r="D454">
+        <v>104754</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B455">
+        <v>454</v>
+      </c>
+      <c r="C455">
+        <f t="shared" si="2"/>
+        <v>6409083</v>
+      </c>
+      <c r="D455">
+        <v>103233</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B456">
+        <v>455</v>
+      </c>
+      <c r="C456">
+        <f t="shared" si="2"/>
+        <v>6519397</v>
+      </c>
+      <c r="D456">
+        <v>110314</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B457">
+        <v>456</v>
+      </c>
+      <c r="C457">
+        <f t="shared" si="2"/>
+        <v>6638418</v>
+      </c>
+      <c r="D457">
+        <v>119021</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B458">
+        <v>457</v>
+      </c>
+      <c r="C458">
+        <f t="shared" si="2"/>
+        <v>6740080</v>
+      </c>
+      <c r="D458">
+        <v>101662</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B459">
+        <v>458</v>
+      </c>
+      <c r="C459">
+        <f t="shared" si="2"/>
+        <v>6834736</v>
+      </c>
+      <c r="D459">
+        <v>94656</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B460">
+        <v>459</v>
+      </c>
+      <c r="C460">
+        <f t="shared" si="2"/>
+        <v>6931689</v>
+      </c>
+      <c r="D460">
+        <v>96953</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B461">
+        <v>460</v>
+      </c>
+      <c r="C461">
+        <f t="shared" si="2"/>
+        <v>7026106</v>
+      </c>
+      <c r="D461">
+        <v>94417</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B462">
+        <v>461</v>
+      </c>
+      <c r="C462">
+        <f t="shared" si="2"/>
+        <v>7114065</v>
+      </c>
+      <c r="D462">
+        <v>87959</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B463">
+        <v>462</v>
+      </c>
+      <c r="C463">
+        <f t="shared" si="2"/>
+        <v>7199038</v>
+      </c>
+      <c r="D463">
+        <v>84973</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B464">
+        <v>463</v>
+      </c>
+      <c r="C464">
+        <f t="shared" si="2"/>
+        <v>7274491</v>
+      </c>
+      <c r="D464">
+        <v>75453</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B465">
+        <v>464</v>
+      </c>
+      <c r="C465">
+        <f t="shared" si="2"/>
+        <v>7328556</v>
+      </c>
+      <c r="D465">
+        <v>54065</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B466">
+        <v>465</v>
+      </c>
+      <c r="C466">
+        <f t="shared" si="2"/>
+        <v>7386171</v>
+      </c>
+      <c r="D466">
+        <v>57615</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B467">
+        <v>466</v>
+      </c>
+      <c r="C467">
+        <f t="shared" si="2"/>
+        <v>7454991</v>
+      </c>
+      <c r="D467">
+        <v>68820</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B468">
+        <v>467</v>
+      </c>
+      <c r="C468">
+        <f t="shared" si="2"/>
+        <v>7526513</v>
+      </c>
+      <c r="D468">
+        <v>71522</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B469">
+        <v>468</v>
+      </c>
+      <c r="C469">
+        <f t="shared" si="2"/>
+        <v>7593891</v>
+      </c>
+      <c r="D469">
+        <v>67378</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B470">
+        <v>469</v>
+      </c>
+      <c r="C470">
+        <f t="shared" si="2"/>
+        <v>7663368</v>
+      </c>
+      <c r="D470">
+        <v>69477</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B471">
+        <v>470</v>
+      </c>
+      <c r="C471">
+        <f t="shared" si="2"/>
+        <v>7740297</v>
+      </c>
+      <c r="D471">
+        <v>76929</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B472">
+        <v>471</v>
+      </c>
+      <c r="C472">
+        <f t="shared" si="2"/>
+        <v>7809390</v>
+      </c>
+      <c r="D472">
+        <v>69093</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B473">
+        <v>472</v>
+      </c>
+      <c r="C473">
+        <f t="shared" si="2"/>
+        <v>7873523</v>
+      </c>
+      <c r="D473">
+        <v>64133</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B474">
+        <v>473</v>
+      </c>
+      <c r="C474">
+        <f t="shared" si="2"/>
+        <v>7926291</v>
+      </c>
+      <c r="D474">
+        <v>52768</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B475">
+        <v>474</v>
+      </c>
+      <c r="C475">
+        <f t="shared" si="2"/>
+        <v>7981963</v>
+      </c>
+      <c r="D475">
+        <v>55672</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B476">
+        <v>475</v>
+      </c>
+      <c r="C476">
+        <f t="shared" si="2"/>
+        <v>8042576</v>
+      </c>
+      <c r="D476">
+        <v>60613</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B477">
+        <v>476</v>
+      </c>
+      <c r="C477">
+        <f t="shared" si="2"/>
+        <v>8110583</v>
+      </c>
+      <c r="D477">
+        <v>68007</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B478">
+        <v>477</v>
+      </c>
+      <c r="C478">
+        <f t="shared" si="2"/>
+        <v>8180838</v>
+      </c>
+      <c r="D478">
+        <v>70255</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B479">
+        <v>478</v>
+      </c>
+      <c r="C479">
+        <f t="shared" si="2"/>
+        <v>8238940</v>
+      </c>
+      <c r="D479">
+        <v>58102</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B480">
+        <v>479</v>
+      </c>
+      <c r="C480">
+        <f t="shared" si="2"/>
+        <v>8288345</v>
+      </c>
+      <c r="D480">
+        <v>49405</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B481">
+        <v>480</v>
+      </c>
+      <c r="C481">
+        <f t="shared" si="2"/>
+        <v>8337812</v>
+      </c>
+      <c r="D481">
+        <v>49467</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B482">
+        <v>481</v>
+      </c>
+      <c r="C482">
+        <f t="shared" si="2"/>
+        <v>8383685</v>
+      </c>
+      <c r="D482">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B483">
+        <v>482</v>
+      </c>
+      <c r="C483">
+        <f t="shared" si="2"/>
+        <v>8425239</v>
+      </c>
+      <c r="D483">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B484">
+        <v>483</v>
+      </c>
+      <c r="C484">
+        <f t="shared" si="2"/>
+        <v>8466467</v>
+      </c>
+      <c r="D484">
+        <v>41228</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B485">
+        <v>484</v>
+      </c>
+      <c r="C485">
+        <f t="shared" si="2"/>
+        <v>8505715</v>
+      </c>
+      <c r="D485">
+        <v>39248</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B486">
+        <v>485</v>
+      </c>
+      <c r="C486">
+        <f t="shared" si="2"/>
+        <v>8537162</v>
+      </c>
+      <c r="D486">
+        <v>31447</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B487">
+        <v>486</v>
+      </c>
+      <c r="C487">
+        <f t="shared" si="2"/>
+        <v>8568228</v>
+      </c>
+      <c r="D487">
+        <v>31066</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B488">
+        <v>487</v>
+      </c>
+      <c r="C488">
+        <f t="shared" si="2"/>
+        <v>8600553</v>
+      </c>
+      <c r="D488">
+        <v>32325</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B489">
+        <v>488</v>
+      </c>
+      <c r="C489">
+        <f t="shared" si="2"/>
+        <v>8632630</v>
+      </c>
+      <c r="D489">
+        <v>32077</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B490">
+        <v>489</v>
+      </c>
+      <c r="C490">
+        <f t="shared" si="2"/>
+        <v>8661632</v>
+      </c>
+      <c r="D490">
+        <v>29002</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="1"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
